--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1459820.376052924</v>
+        <v>1458086.894939281</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.21222871</v>
+        <v>6049179.212228709</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -1370,16 +1370,16 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C11" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>302.4991588451549</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>93.71700301562839</v>
       </c>
       <c r="G11" t="n">
         <v>333.0902356170842</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500376</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>131.4895384249674</v>
@@ -1430,13 +1430,13 @@
         <v>248.321047243028</v>
       </c>
       <c r="W11" t="n">
-        <v>63.51991176345517</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="12">
@@ -1455,19 +1455,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>78.21386922829402</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>65.63800116627695</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>135.8553954612995</v>
       </c>
       <c r="H12" t="n">
-        <v>97.863321483828</v>
+        <v>30.74388457314899</v>
       </c>
       <c r="I12" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S12" t="n">
-        <v>64.61075194868781</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T12" t="n">
         <v>194.1665539401884</v>
       </c>
       <c r="U12" t="n">
-        <v>199.9943899252594</v>
+        <v>225.843479337428</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>172.2637719338127</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>126.3417739763705</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1528,25 +1528,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C13" t="n">
-        <v>87.81560987152091</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D13" t="n">
-        <v>69.18426179110543</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E13" t="n">
-        <v>67.00275141946224</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F13" t="n">
-        <v>65.98983679582432</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G13" t="n">
-        <v>87.31217688571735</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H13" t="n">
-        <v>71.70374093278248</v>
+        <v>71.70374093278245</v>
       </c>
       <c r="I13" t="n">
-        <v>38.50079242234363</v>
+        <v>38.50079242234362</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C14" t="n">
         <v>285.8416805439006</v>
       </c>
       <c r="D14" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F14" t="n">
         <v>327.4448345146045</v>
       </c>
       <c r="G14" t="n">
-        <v>333.0902356170842</v>
+        <v>172.7252048324579</v>
       </c>
       <c r="H14" t="n">
-        <v>231.5596978048558</v>
+        <v>231.5596978048557</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173339</v>
+        <v>23.81896975173338</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V14" t="n">
-        <v>227.7880024517099</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W14" t="n">
-        <v>269.8097574903061</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>290.2998894513621</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1692,16 +1692,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>90.5256435447215</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>65.63800116627695</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>56.42418423419253</v>
+        <v>68.73595855062094</v>
       </c>
       <c r="H15" t="n">
-        <v>97.863321483828</v>
+        <v>18.43211025672105</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S15" t="n">
-        <v>144.0419631757947</v>
+        <v>64.61075194868779</v>
       </c>
       <c r="T15" t="n">
         <v>194.1665539401884</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C16" t="n">
-        <v>87.81560987152091</v>
+        <v>87.81560987152088</v>
       </c>
       <c r="D16" t="n">
-        <v>69.18426179110543</v>
+        <v>69.1842617911054</v>
       </c>
       <c r="E16" t="n">
-        <v>67.00275141946224</v>
+        <v>67.00275141946221</v>
       </c>
       <c r="F16" t="n">
-        <v>65.98983679582432</v>
+        <v>65.98983679582429</v>
       </c>
       <c r="G16" t="n">
-        <v>87.31217688571735</v>
+        <v>87.31217688571732</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278247</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I16" t="n">
-        <v>38.50079242234364</v>
+        <v>38.50079242234361</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089784</v>
+        <v>41.76594105089782</v>
       </c>
       <c r="S16" t="n">
         <v>122.8432739200354</v>
@@ -1822,16 +1822,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V16" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W16" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X16" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y16" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>223.8714192092667</v>
       </c>
       <c r="C17" t="n">
-        <v>26.51214666710431</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D17" t="n">
         <v>195.820619166469</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786042</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U17" t="n">
-        <v>92.26072719994707</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>168.889836015921</v>
+        <v>81.25224056617837</v>
       </c>
       <c r="W17" t="n">
         <v>190.3785462631991</v>
@@ -1929,19 +1929,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>136.4348912391234</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.8553954612995</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>23.68717693748441</v>
       </c>
       <c r="I18" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0419631757947</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>194.1665539401884</v>
@@ -2005,25 +2005,25 @@
         <v>8.38439864441392</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>98.1175825820971</v>
+        <v>102.2390603273861</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S19" t="n">
         <v>43.41206269292843</v>
       </c>
       <c r="T19" t="n">
-        <v>63.75254983362937</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U19" t="n">
         <v>127.3885564706969</v>
@@ -2081,7 +2081,7 @@
         <v>223.8714192092667</v>
       </c>
       <c r="C20" t="n">
-        <v>26.51214666710364</v>
+        <v>206.4104693167936</v>
       </c>
       <c r="D20" t="n">
         <v>195.820619166469</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786042</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U20" t="n">
-        <v>92.26072719994707</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>168.889836015921</v>
+        <v>81.25224056617994</v>
       </c>
       <c r="W20" t="n">
         <v>190.3785462631991</v>
@@ -2166,10 +2166,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>76.73243348389197</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>135.8553954612995</v>
@@ -2178,7 +2178,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I21" t="n">
-        <v>38.16086372859611</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T21" t="n">
-        <v>81.82954566524805</v>
+        <v>194.1665539401884</v>
       </c>
       <c r="U21" t="n">
         <v>225.843479337428</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>54.11983324855738</v>
       </c>
       <c r="G22" t="n">
-        <v>99.66606908337717</v>
+        <v>166.7433881128243</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.2744851471423</v>
+        <v>43.41206269292843</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6149722878433</v>
+        <v>63.75254983362937</v>
       </c>
       <c r="U22" t="n">
-        <v>127.3885564706969</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V22" t="n">
         <v>93.27522086961409</v>
       </c>
       <c r="W22" t="n">
-        <v>127.6605758823771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>66.84723293482324</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786042</v>
+        <v>52.05832719786043</v>
       </c>
       <c r="U23" t="n">
         <v>92.26072719994707</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>105.2264778560494</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7433881128243</v>
+        <v>7.88096565861037</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.41206269292843</v>
+        <v>150.8907745538941</v>
       </c>
       <c r="T25" t="n">
-        <v>63.75254983362937</v>
+        <v>222.6149722878433</v>
       </c>
       <c r="U25" t="n">
         <v>127.3885564706969</v>
@@ -2573,7 +2573,7 @@
         <v>231.5596978048557</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173339</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T26" t="n">
         <v>131.4895384249673</v>
@@ -2649,10 +2649,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H27" t="n">
-        <v>97.86332148382802</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I27" t="n">
-        <v>38.16086372859612</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754556</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S27" t="n">
-        <v>144.0419631757948</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T27" t="n">
         <v>194.1665539401884</v>
@@ -2713,25 +2713,25 @@
         <v>100.4007689548303</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152086</v>
+        <v>87.81560987152085</v>
       </c>
       <c r="D28" t="n">
-        <v>69.18426179110538</v>
+        <v>69.18426179110537</v>
       </c>
       <c r="E28" t="n">
-        <v>67.0027514194622</v>
+        <v>67.00275141946219</v>
       </c>
       <c r="F28" t="n">
-        <v>65.98983679582427</v>
+        <v>65.98983679582426</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571731</v>
+        <v>87.31217688571729</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278244</v>
+        <v>71.70374093278241</v>
       </c>
       <c r="I28" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234358</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089779</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
@@ -2792,7 +2792,7 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C29" t="n">
-        <v>285.8416805439006</v>
+        <v>285.8416805439007</v>
       </c>
       <c r="D29" t="n">
         <v>275.251830393576</v>
@@ -2810,7 +2810,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173336</v>
+        <v>23.81896975173343</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500381</v>
       </c>
       <c r="T29" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U29" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V29" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W29" t="n">
         <v>269.8097574903061</v>
@@ -2858,7 +2858,7 @@
         <v>290.2998894513621</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S30" t="n">
         <v>144.0419631757947</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152088</v>
+        <v>87.81560987152093</v>
       </c>
       <c r="D31" t="n">
-        <v>69.1842617911054</v>
+        <v>69.18426179110546</v>
       </c>
       <c r="E31" t="n">
-        <v>67.00275141946221</v>
+        <v>67.00275141946227</v>
       </c>
       <c r="F31" t="n">
-        <v>65.98983679582429</v>
+        <v>65.98983679582435</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571732</v>
+        <v>87.31217688571738</v>
       </c>
       <c r="H31" t="n">
-        <v>71.70374093278245</v>
+        <v>71.70374093278251</v>
       </c>
       <c r="I31" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234366</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089787</v>
       </c>
       <c r="S31" t="n">
         <v>122.8432739200354</v>
       </c>
       <c r="T31" t="n">
-        <v>143.1837610607363</v>
+        <v>143.1837610607364</v>
       </c>
       <c r="U31" t="n">
         <v>206.8197676978039</v>
       </c>
       <c r="V31" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W31" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X31" t="n">
-        <v>146.2784441619302</v>
+        <v>146.2784441619303</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173339</v>
+        <v>23.81896975173341</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>171.6919384270541</v>
       </c>
       <c r="V32" t="n">
-        <v>248.3210472430266</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W32" t="n">
         <v>269.8097574903061</v>
       </c>
       <c r="X32" t="n">
-        <v>290.2998894513621</v>
+        <v>290.2998894513614</v>
       </c>
       <c r="Y32" t="n">
         <v>306.8067274289467</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S33" t="n">
         <v>144.0419631757947</v>
@@ -3187,25 +3187,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C34" t="n">
-        <v>87.81560987152091</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D34" t="n">
-        <v>69.18426179110543</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E34" t="n">
-        <v>67.00275141946224</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F34" t="n">
-        <v>65.98983679582432</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G34" t="n">
-        <v>87.31217688571735</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H34" t="n">
-        <v>71.70374093278247</v>
+        <v>71.70374093278245</v>
       </c>
       <c r="I34" t="n">
-        <v>38.50079242234364</v>
+        <v>38.50079242234362</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3266,19 +3266,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C35" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D35" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E35" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F35" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G35" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H35" t="n">
         <v>165.349500609852</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996362</v>
       </c>
       <c r="U35" t="n">
         <v>105.4817412320503</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S36" t="n">
         <v>144.0419631757947</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.19057175982661</v>
+        <v>34.19057175982658</v>
       </c>
       <c r="C37" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651712</v>
       </c>
       <c r="D37" t="n">
-        <v>2.97406459610167</v>
+        <v>2.974064596101641</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7925542244584847</v>
+        <v>0.7925542244584562</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>21.10197969071359</v>
+        <v>21.10197969071357</v>
       </c>
       <c r="H37" t="n">
-        <v>5.493543737778717</v>
+        <v>5.49354373777869</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.63307672503166</v>
+        <v>56.63307672503163</v>
       </c>
       <c r="T37" t="n">
-        <v>174.9275447533395</v>
+        <v>76.97356386573256</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2509789249108</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>106.4962349017173</v>
       </c>
       <c r="W37" t="n">
-        <v>140.8815899144803</v>
+        <v>239.0559312012672</v>
       </c>
       <c r="X37" t="n">
-        <v>80.06824696692647</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998408</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>237.0924332413699</v>
       </c>
       <c r="C38" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D38" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E38" t="n">
         <v>236.2889616501511</v>
       </c>
       <c r="F38" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G38" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H38" t="n">
         <v>165.349500609852</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996362</v>
       </c>
       <c r="U38" t="n">
         <v>105.4817412320503</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S39" t="n">
         <v>144.0419631757947</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651712</v>
       </c>
       <c r="D40" t="n">
-        <v>2.97406459610167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7925542244584847</v>
+        <v>0.7925542244584562</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>21.10197969071359</v>
+        <v>21.10197969071357</v>
       </c>
       <c r="H40" t="n">
-        <v>5.493543737778717</v>
+        <v>5.49354373777869</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.63307672503166</v>
+        <v>56.63307672503163</v>
       </c>
       <c r="T40" t="n">
-        <v>76.97356386573259</v>
+        <v>76.97356386573256</v>
       </c>
       <c r="U40" t="n">
         <v>140.6095705028001</v>
@@ -3724,10 +3724,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X40" t="n">
-        <v>178.0222278545334</v>
+        <v>80.06824696692644</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>170.8972258175914</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.0924332413698</v>
+        <v>237.0924332413699</v>
       </c>
       <c r="C41" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D41" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E41" t="n">
-        <v>236.288961650151</v>
+        <v>236.2889616501511</v>
       </c>
       <c r="F41" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G41" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H41" t="n">
-        <v>165.3495006098519</v>
+        <v>165.349500609852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.27934122996356</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U41" t="n">
-        <v>105.4817412320502</v>
+        <v>105.4817412320503</v>
       </c>
       <c r="V41" t="n">
-        <v>182.1108500480241</v>
+        <v>182.1108500480242</v>
       </c>
       <c r="W41" t="n">
-        <v>203.5995602953022</v>
+        <v>203.5995602953023</v>
       </c>
       <c r="X41" t="n">
         <v>224.0896922563583</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.5965302339428</v>
+        <v>240.5965302339429</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S42" t="n">
         <v>144.0419631757947</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.19057175982653</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C43" t="n">
-        <v>21.60541267651706</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D43" t="n">
-        <v>2.974064596101584</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7925542244583994</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7433881128243</v>
+        <v>119.0559605783205</v>
       </c>
       <c r="H43" t="n">
-        <v>151.1349521598894</v>
+        <v>5.493543737778719</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.5870576126396</v>
+        <v>56.63307672503166</v>
       </c>
       <c r="T43" t="n">
-        <v>76.9735638657325</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U43" t="n">
-        <v>140.6095705028</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V43" t="n">
-        <v>106.4962349017172</v>
+        <v>106.4962349017173</v>
       </c>
       <c r="W43" t="n">
-        <v>140.8815899144802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>80.06824696692638</v>
+        <v>80.06824696692647</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.94324492998402</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="44">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S45" t="n">
         <v>144.0419631757947</v>
@@ -4150,7 +4150,7 @@
         <v>21.10197969071354</v>
       </c>
       <c r="H46" t="n">
-        <v>5.49354373777866</v>
+        <v>5.493543737778662</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         <v>56.6330767250316</v>
       </c>
       <c r="T46" t="n">
-        <v>174.9275447533401</v>
+        <v>174.9275447533402</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2509789249108</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>140.8815899144803</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>80.06824696692641</v>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1513.41830494492</v>
+        <v>1041.320822195578</v>
       </c>
       <c r="C11" t="n">
-        <v>1224.689334698556</v>
+        <v>1041.320822195578</v>
       </c>
       <c r="D11" t="n">
-        <v>946.6571827858527</v>
+        <v>1041.320822195578</v>
       </c>
       <c r="E11" t="n">
-        <v>641.1024768816558</v>
+        <v>735.7661162913812</v>
       </c>
       <c r="F11" t="n">
         <v>641.1024768816558</v>
       </c>
       <c r="G11" t="n">
-        <v>304.6476934300555</v>
+        <v>304.6476934300558</v>
       </c>
       <c r="H11" t="n">
-        <v>70.74900877868606</v>
+        <v>70.74900877868626</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J11" t="n">
-        <v>101.151981283672</v>
+        <v>268.557630304025</v>
       </c>
       <c r="K11" t="n">
-        <v>554.4196843468364</v>
+        <v>721.8253333671894</v>
       </c>
       <c r="L11" t="n">
-        <v>755.5303758059823</v>
+        <v>922.9360248263351</v>
       </c>
       <c r="M11" t="n">
-        <v>1010.97420738012</v>
+        <v>1178.379856400473</v>
       </c>
       <c r="N11" t="n">
-        <v>1275.165195586265</v>
+        <v>1442.570844606618</v>
       </c>
       <c r="O11" t="n">
-        <v>1852.94705732584</v>
+        <v>1879.985460408263</v>
       </c>
       <c r="P11" t="n">
-        <v>2257.210179707975</v>
+        <v>2047.01833895467</v>
       </c>
       <c r="Q11" t="n">
         <v>2334.472168644747</v>
@@ -5066,25 +5066,25 @@
         <v>2334.472168644747</v>
       </c>
       <c r="S11" t="n">
-        <v>2267.593181579086</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T11" t="n">
-        <v>2134.775465998311</v>
+        <v>2201.654453063972</v>
       </c>
       <c r="U11" t="n">
-        <v>2134.775465998311</v>
+        <v>2201.654453063972</v>
       </c>
       <c r="V11" t="n">
-        <v>1883.946125348788</v>
+        <v>1950.825112414449</v>
       </c>
       <c r="W11" t="n">
-        <v>1819.784598314995</v>
+        <v>1950.825112414449</v>
       </c>
       <c r="X11" t="n">
-        <v>1819.784598314995</v>
+        <v>1657.592900847416</v>
       </c>
       <c r="Y11" t="n">
-        <v>1819.784598314995</v>
+        <v>1347.687115565652</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>790.0076409701163</v>
+        <v>844.1309963387412</v>
       </c>
       <c r="C12" t="n">
-        <v>615.5546116889893</v>
+        <v>669.6779670576142</v>
       </c>
       <c r="D12" t="n">
-        <v>466.620202027738</v>
+        <v>520.7435573963629</v>
       </c>
       <c r="E12" t="n">
-        <v>387.6162937163299</v>
+        <v>361.5061023909074</v>
       </c>
       <c r="F12" t="n">
-        <v>321.3152824372622</v>
+        <v>214.9715444177924</v>
       </c>
       <c r="G12" t="n">
-        <v>184.0876102541314</v>
+        <v>77.74387223466161</v>
       </c>
       <c r="H12" t="n">
-        <v>85.23577037147686</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J12" t="n">
         <v>185.1392358768292</v>
@@ -5124,16 +5124,16 @@
         <v>548.3928263393643</v>
       </c>
       <c r="L12" t="n">
-        <v>1098.23650328044</v>
+        <v>731.1045614300151</v>
       </c>
       <c r="M12" t="n">
-        <v>1465.841993411809</v>
+        <v>963.6774064972805</v>
       </c>
       <c r="N12" t="n">
-        <v>1718.978994561653</v>
+        <v>1541.459268236855</v>
       </c>
       <c r="O12" t="n">
-        <v>1928.330101087704</v>
+        <v>1750.810374762907</v>
       </c>
       <c r="P12" t="n">
         <v>2077.019754551161</v>
@@ -5142,28 +5142,28 @@
         <v>2334.472168644747</v>
       </c>
       <c r="R12" t="n">
-        <v>2326.629995268227</v>
+        <v>2326.629995268228</v>
       </c>
       <c r="S12" t="n">
-        <v>2261.366609461472</v>
+        <v>2181.133062767425</v>
       </c>
       <c r="T12" t="n">
-        <v>2065.238777198655</v>
+        <v>1985.005230504608</v>
       </c>
       <c r="U12" t="n">
-        <v>1863.224241920615</v>
+        <v>1756.880503901145</v>
       </c>
       <c r="V12" t="n">
-        <v>1628.072133688873</v>
+        <v>1521.728395669403</v>
       </c>
       <c r="W12" t="n">
-        <v>1373.834776960671</v>
+        <v>1347.724585635249</v>
       </c>
       <c r="X12" t="n">
-        <v>1165.983276755138</v>
+        <v>1220.106632123763</v>
       </c>
       <c r="Y12" t="n">
-        <v>958.2229779901843</v>
+        <v>1012.346333358809</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1229485433561</v>
+        <v>539.122948543356</v>
       </c>
       <c r="C13" t="n">
         <v>450.4203123094964</v>
@@ -5182,49 +5182,49 @@
         <v>380.5372195912081</v>
       </c>
       <c r="E13" t="n">
-        <v>312.8576727028622</v>
+        <v>312.8576727028624</v>
       </c>
       <c r="F13" t="n">
-        <v>246.2012718989993</v>
+        <v>246.2012718989994</v>
       </c>
       <c r="G13" t="n">
-        <v>158.0071538326181</v>
+        <v>158.0071538326183</v>
       </c>
       <c r="H13" t="n">
         <v>85.57913268839356</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J13" t="n">
         <v>120.2234082279187</v>
       </c>
       <c r="K13" t="n">
-        <v>320.3114555080078</v>
+        <v>320.311455508008</v>
       </c>
       <c r="L13" t="n">
-        <v>609.8904447105128</v>
+        <v>609.8904447105124</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538484</v>
+        <v>921.3253246538479</v>
       </c>
       <c r="N13" t="n">
-        <v>1232.659405364007</v>
+        <v>1232.659405364006</v>
       </c>
       <c r="O13" t="n">
-        <v>1510.213519297866</v>
+        <v>1510.213519297865</v>
       </c>
       <c r="P13" t="n">
-        <v>1735.537777472236</v>
+        <v>1735.537777472235</v>
       </c>
       <c r="Q13" t="n">
-        <v>1832.298320439747</v>
+        <v>1832.298320439746</v>
       </c>
       <c r="R13" t="n">
-        <v>1790.110501196416</v>
+        <v>1790.110501196415</v>
       </c>
       <c r="S13" t="n">
-        <v>1666.026386125673</v>
+        <v>1666.026386125672</v>
       </c>
       <c r="T13" t="n">
         <v>1521.396324448161</v>
@@ -5236,13 +5236,13 @@
         <v>1138.036526675914</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330009</v>
+        <v>928.8529033330008</v>
       </c>
       <c r="X13" t="n">
-        <v>781.096899129031</v>
+        <v>781.0968991290308</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.5378666795484</v>
+        <v>640.5378666795482</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1538.615957136284</v>
+        <v>1404.153631547347</v>
       </c>
       <c r="C14" t="n">
-        <v>1249.88698688992</v>
+        <v>1115.424661300982</v>
       </c>
       <c r="D14" t="n">
-        <v>971.8548349772161</v>
+        <v>1115.424661300982</v>
       </c>
       <c r="E14" t="n">
-        <v>971.8548349772161</v>
+        <v>809.8699553967854</v>
       </c>
       <c r="F14" t="n">
-        <v>641.102476881656</v>
+        <v>479.1175973012253</v>
       </c>
       <c r="G14" t="n">
-        <v>304.6476934300558</v>
+        <v>304.6476934300557</v>
       </c>
       <c r="H14" t="n">
         <v>70.74900877868625</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J14" t="n">
-        <v>268.5576303040251</v>
+        <v>151.2587276747099</v>
       </c>
       <c r="K14" t="n">
-        <v>604.5264307378735</v>
+        <v>604.5264307378743</v>
       </c>
       <c r="L14" t="n">
-        <v>805.6371221970194</v>
+        <v>805.6371221970201</v>
       </c>
       <c r="M14" t="n">
         <v>1061.080953771158</v>
       </c>
       <c r="N14" t="n">
-        <v>1325.271941977302</v>
+        <v>1325.271941977303</v>
       </c>
       <c r="O14" t="n">
         <v>1561.404739318495</v>
@@ -5303,25 +5303,25 @@
         <v>2334.472168644747</v>
       </c>
       <c r="S14" t="n">
-        <v>2334.472168644747</v>
+        <v>2267.593181579087</v>
       </c>
       <c r="T14" t="n">
-        <v>2334.472168644747</v>
+        <v>2134.775465998312</v>
       </c>
       <c r="U14" t="n">
-        <v>2334.472168644747</v>
+        <v>1961.349265566944</v>
       </c>
       <c r="V14" t="n">
-        <v>2104.383277279383</v>
+        <v>1710.519924917421</v>
       </c>
       <c r="W14" t="n">
-        <v>1831.848168703317</v>
+        <v>1710.519924917421</v>
       </c>
       <c r="X14" t="n">
-        <v>1538.615957136284</v>
+        <v>1710.519924917421</v>
       </c>
       <c r="Y14" t="n">
-        <v>1538.615957136284</v>
+        <v>1710.519924917421</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>683.6639029506459</v>
+        <v>763.8974496446942</v>
       </c>
       <c r="C15" t="n">
-        <v>509.2108736695189</v>
+        <v>589.4444203635672</v>
       </c>
       <c r="D15" t="n">
-        <v>360.2764640082677</v>
+        <v>440.510010702316</v>
       </c>
       <c r="E15" t="n">
-        <v>268.8364200237005</v>
+        <v>281.2725556968605</v>
       </c>
       <c r="F15" t="n">
-        <v>202.5354087446329</v>
+        <v>134.7379977237455</v>
       </c>
       <c r="G15" t="n">
-        <v>145.5412832555495</v>
+        <v>65.30773656150208</v>
       </c>
       <c r="H15" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J15" t="n">
         <v>185.1392358768292</v>
@@ -5361,46 +5361,46 @@
         <v>548.3928263393643</v>
       </c>
       <c r="L15" t="n">
-        <v>1098.23650328044</v>
+        <v>917.9910073910058</v>
       </c>
       <c r="M15" t="n">
-        <v>1330.809348347705</v>
+        <v>1150.563852458271</v>
       </c>
       <c r="N15" t="n">
-        <v>1583.946349497549</v>
+        <v>1403.700853608115</v>
       </c>
       <c r="O15" t="n">
-        <v>1793.297456023601</v>
+        <v>1613.051960134167</v>
       </c>
       <c r="P15" t="n">
-        <v>2257.265250440595</v>
+        <v>2077.019754551161</v>
       </c>
       <c r="Q15" t="n">
         <v>2334.472168644747</v>
       </c>
       <c r="R15" t="n">
-        <v>2326.629995268227</v>
+        <v>2326.629995268228</v>
       </c>
       <c r="S15" t="n">
-        <v>2181.133062767424</v>
+        <v>2261.366609461472</v>
       </c>
       <c r="T15" t="n">
-        <v>1985.005230504608</v>
+        <v>2065.238777198656</v>
       </c>
       <c r="U15" t="n">
-        <v>1756.880503901145</v>
+        <v>1837.114050595193</v>
       </c>
       <c r="V15" t="n">
-        <v>1521.728395669402</v>
+        <v>1601.961942363451</v>
       </c>
       <c r="W15" t="n">
-        <v>1267.491038941201</v>
+        <v>1347.724585635249</v>
       </c>
       <c r="X15" t="n">
-        <v>1059.639538735668</v>
+        <v>1139.873085429716</v>
       </c>
       <c r="Y15" t="n">
-        <v>851.879239970714</v>
+        <v>932.1127866647623</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>539.1229485433558</v>
+        <v>539.1229485433551</v>
       </c>
       <c r="C16" t="n">
-        <v>450.4203123094963</v>
+        <v>450.4203123094956</v>
       </c>
       <c r="D16" t="n">
-        <v>380.537219591208</v>
+        <v>380.5372195912072</v>
       </c>
       <c r="E16" t="n">
-        <v>312.8576727028623</v>
+        <v>312.8576727028616</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989993</v>
+        <v>246.2012718989988</v>
       </c>
       <c r="G16" t="n">
-        <v>158.0071538326182</v>
+        <v>158.0071538326176</v>
       </c>
       <c r="H16" t="n">
-        <v>85.57913268839356</v>
+        <v>85.57913268839354</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J16" t="n">
         <v>120.2234082279186</v>
       </c>
       <c r="K16" t="n">
-        <v>320.3114555080078</v>
+        <v>320.3114555080077</v>
       </c>
       <c r="L16" t="n">
-        <v>609.8904447105128</v>
+        <v>609.8904447105126</v>
       </c>
       <c r="M16" t="n">
-        <v>921.3253246538482</v>
+        <v>921.325324653848</v>
       </c>
       <c r="N16" t="n">
-        <v>1232.659405364007</v>
+        <v>1232.659405364006</v>
       </c>
       <c r="O16" t="n">
-        <v>1510.213519297866</v>
+        <v>1510.213519297865</v>
       </c>
       <c r="P16" t="n">
-        <v>1735.537777472236</v>
+        <v>1735.537777472235</v>
       </c>
       <c r="Q16" t="n">
         <v>1832.298320439746</v>
@@ -5461,7 +5461,7 @@
         <v>1790.110501196415</v>
       </c>
       <c r="S16" t="n">
-        <v>1666.026386125673</v>
+        <v>1666.026386125672</v>
       </c>
       <c r="T16" t="n">
         <v>1521.396324448161</v>
@@ -5470,16 +5470,16 @@
         <v>1312.487468187753</v>
       </c>
       <c r="V16" t="n">
-        <v>1138.036526675914</v>
+        <v>1138.036526675913</v>
       </c>
       <c r="W16" t="n">
-        <v>928.8529033330008</v>
+        <v>928.852903333</v>
       </c>
       <c r="X16" t="n">
-        <v>781.0968991290308</v>
+        <v>781.0968991290299</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.5378666795482</v>
+        <v>640.5378666795473</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1156.994340046475</v>
+        <v>1338.709817470404</v>
       </c>
       <c r="C17" t="n">
         <v>1130.214393918087</v>
       </c>
       <c r="D17" t="n">
-        <v>932.4157886994315</v>
+        <v>932.4157886994318</v>
       </c>
       <c r="E17" t="n">
-        <v>707.0946294892821</v>
+        <v>707.0946294892824</v>
       </c>
       <c r="F17" t="n">
-        <v>456.5758180877693</v>
+        <v>456.5758180877697</v>
       </c>
       <c r="G17" t="n">
         <v>200.354581330217</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J17" t="n">
-        <v>268.5576303040251</v>
+        <v>268.557630304025</v>
       </c>
       <c r="K17" t="n">
-        <v>579.9337098920174</v>
+        <v>579.9337098920182</v>
       </c>
       <c r="L17" t="n">
-        <v>781.0444013511633</v>
+        <v>781.044401351164</v>
       </c>
       <c r="M17" t="n">
-        <v>1036.488232925301</v>
+        <v>1036.488232925302</v>
       </c>
       <c r="N17" t="n">
         <v>1300.679221131446</v>
@@ -5546,19 +5546,19 @@
         <v>2281.887999758019</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.695346020699</v>
+        <v>2281.887999758019</v>
       </c>
       <c r="V17" t="n">
-        <v>2018.099552065223</v>
+        <v>2199.815029489152</v>
       </c>
       <c r="W17" t="n">
-        <v>1825.797990183204</v>
+        <v>2007.513467607133</v>
       </c>
       <c r="X17" t="n">
-        <v>1612.799325310219</v>
+        <v>1794.514802734148</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.127086722502</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>683.6639029506459</v>
+        <v>837.0030088279689</v>
       </c>
       <c r="C18" t="n">
-        <v>509.2108736695189</v>
+        <v>662.5499795468419</v>
       </c>
       <c r="D18" t="n">
-        <v>360.2764640082677</v>
+        <v>513.6155698855906</v>
       </c>
       <c r="E18" t="n">
-        <v>360.2764640082677</v>
+        <v>354.3781148801351</v>
       </c>
       <c r="F18" t="n">
-        <v>222.4634425546076</v>
+        <v>207.8435569070201</v>
       </c>
       <c r="G18" t="n">
-        <v>85.23577037147686</v>
+        <v>70.61588472388931</v>
       </c>
       <c r="H18" t="n">
-        <v>85.23577037147686</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J18" t="n">
-        <v>185.1392358768292</v>
+        <v>60.30911088982446</v>
       </c>
       <c r="K18" t="n">
-        <v>548.3928263393643</v>
+        <v>423.5627013523596</v>
       </c>
       <c r="L18" t="n">
-        <v>1098.23650328044</v>
+        <v>973.406378293435</v>
       </c>
       <c r="M18" t="n">
-        <v>1330.809348347705</v>
+        <v>1205.9792233607</v>
       </c>
       <c r="N18" t="n">
-        <v>1583.946349497549</v>
+        <v>1459.116224510544</v>
       </c>
       <c r="O18" t="n">
-        <v>1793.297456023601</v>
+        <v>1668.467331036596</v>
       </c>
       <c r="P18" t="n">
         <v>2077.019754551161</v>
@@ -5616,28 +5616,28 @@
         <v>2334.472168644747</v>
       </c>
       <c r="R18" t="n">
-        <v>2326.629995268227</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S18" t="n">
-        <v>2181.133062767424</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T18" t="n">
-        <v>1985.005230504608</v>
+        <v>2138.344336381931</v>
       </c>
       <c r="U18" t="n">
-        <v>1756.880503901145</v>
+        <v>1910.219609778468</v>
       </c>
       <c r="V18" t="n">
-        <v>1521.728395669402</v>
+        <v>1675.067501546725</v>
       </c>
       <c r="W18" t="n">
-        <v>1267.491038941201</v>
+        <v>1420.830144818524</v>
       </c>
       <c r="X18" t="n">
-        <v>1059.639538735668</v>
+        <v>1212.978644612991</v>
       </c>
       <c r="Y18" t="n">
-        <v>851.879239970714</v>
+        <v>1005.218345848037</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>599.1868826801917</v>
+        <v>316.2984233547179</v>
       </c>
       <c r="C19" t="n">
-        <v>590.7177931403797</v>
+        <v>307.8293338149059</v>
       </c>
       <c r="D19" t="n">
-        <v>440.601153728044</v>
+        <v>307.8293338149059</v>
       </c>
       <c r="E19" t="n">
-        <v>292.6880601456509</v>
+        <v>307.8293338149059</v>
       </c>
       <c r="F19" t="n">
-        <v>145.7981126477405</v>
+        <v>307.8293338149059</v>
       </c>
       <c r="G19" t="n">
-        <v>46.68944337289494</v>
+        <v>204.5575557064351</v>
       </c>
       <c r="H19" t="n">
-        <v>46.68944337289494</v>
+        <v>51.89598786816293</v>
       </c>
       <c r="I19" t="n">
-        <v>46.68944337289494</v>
+        <v>51.89598786816293</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="K19" t="n">
         <v>168.1405915381484</v>
@@ -5680,13 +5680,13 @@
         <v>379.0826816258174</v>
       </c>
       <c r="M19" t="n">
-        <v>611.8806624543171</v>
+        <v>611.880662454317</v>
       </c>
       <c r="N19" t="n">
-        <v>844.5778440496398</v>
+        <v>844.5778440496397</v>
       </c>
       <c r="O19" t="n">
-        <v>1043.495058868663</v>
+        <v>1043.495058868662</v>
       </c>
       <c r="P19" t="n">
         <v>1190.182417928197</v>
@@ -5695,28 +5695,28 @@
         <v>1208.306061780872</v>
       </c>
       <c r="R19" t="n">
-        <v>1208.306061780872</v>
+        <v>1085.884695843493</v>
       </c>
       <c r="S19" t="n">
-        <v>1164.455493404176</v>
+        <v>1042.034127466798</v>
       </c>
       <c r="T19" t="n">
-        <v>1100.058978420712</v>
+        <v>817.1705190952387</v>
       </c>
       <c r="U19" t="n">
-        <v>971.383668854352</v>
+        <v>688.4952095288781</v>
       </c>
       <c r="V19" t="n">
-        <v>877.16627403656</v>
+        <v>594.2778147110862</v>
       </c>
       <c r="W19" t="n">
-        <v>748.2161973876943</v>
+        <v>465.3277380622204</v>
       </c>
       <c r="X19" t="n">
-        <v>680.6937398777718</v>
+        <v>397.805280552298</v>
       </c>
       <c r="Y19" t="n">
-        <v>620.3682541223366</v>
+        <v>337.4797947968627</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1156.994340046475</v>
+        <v>1338.709817470404</v>
       </c>
       <c r="C20" t="n">
         <v>1130.214393918087</v>
@@ -5735,67 +5735,67 @@
         <v>932.4157886994317</v>
       </c>
       <c r="E20" t="n">
-        <v>707.0946294892823</v>
+        <v>707.0946294892824</v>
       </c>
       <c r="F20" t="n">
-        <v>456.5758180877696</v>
+        <v>456.5758180877697</v>
       </c>
       <c r="G20" t="n">
-        <v>200.3545813302169</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J20" t="n">
-        <v>151.2587276747086</v>
+        <v>268.557630304025</v>
       </c>
       <c r="K20" t="n">
-        <v>604.5264307378731</v>
+        <v>721.8253333671894</v>
       </c>
       <c r="L20" t="n">
-        <v>805.6371221970189</v>
+        <v>922.9360248263351</v>
       </c>
       <c r="M20" t="n">
-        <v>1061.080953771157</v>
+        <v>1178.379856400473</v>
       </c>
       <c r="N20" t="n">
-        <v>1325.271941977302</v>
+        <v>1442.570844606618</v>
       </c>
       <c r="O20" t="n">
-        <v>1561.404739318494</v>
+        <v>1855.392739562407</v>
       </c>
       <c r="P20" t="n">
-        <v>2047.018338954669</v>
+        <v>2022.425618108814</v>
       </c>
       <c r="Q20" t="n">
-        <v>2334.472168644746</v>
+        <v>2309.879447798891</v>
       </c>
       <c r="R20" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="S20" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="T20" t="n">
-        <v>2281.887999758018</v>
+        <v>2281.88799975802</v>
       </c>
       <c r="U20" t="n">
-        <v>2188.695346020699</v>
+        <v>2281.88799975802</v>
       </c>
       <c r="V20" t="n">
-        <v>2018.099552065223</v>
+        <v>2199.815029489152</v>
       </c>
       <c r="W20" t="n">
-        <v>1825.797990183204</v>
+        <v>2007.513467607133</v>
       </c>
       <c r="X20" t="n">
-        <v>1612.799325310219</v>
+        <v>1794.514802734148</v>
       </c>
       <c r="Y20" t="n">
-        <v>1383.127086722502</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>950.4747343582111</v>
+        <v>683.6639029506464</v>
       </c>
       <c r="C21" t="n">
-        <v>776.0217050770841</v>
+        <v>509.2108736695194</v>
       </c>
       <c r="D21" t="n">
-        <v>627.0872954158328</v>
+        <v>360.2764640082681</v>
       </c>
       <c r="E21" t="n">
-        <v>467.8498404103773</v>
+        <v>282.7689554386803</v>
       </c>
       <c r="F21" t="n">
-        <v>321.3152824372622</v>
+        <v>282.7689554386803</v>
       </c>
       <c r="G21" t="n">
-        <v>184.0876102541314</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H21" t="n">
-        <v>85.23577037147686</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J21" t="n">
         <v>185.1392358768292</v>
@@ -5835,46 +5835,46 @@
         <v>548.3928263393643</v>
       </c>
       <c r="L21" t="n">
-        <v>917.9910073910048</v>
+        <v>731.1045614300151</v>
       </c>
       <c r="M21" t="n">
-        <v>1150.56385245827</v>
+        <v>963.6774064972805</v>
       </c>
       <c r="N21" t="n">
-        <v>1403.700853608114</v>
+        <v>1541.459268236855</v>
       </c>
       <c r="O21" t="n">
-        <v>1613.051960134166</v>
+        <v>1750.810374762907</v>
       </c>
       <c r="P21" t="n">
-        <v>2077.01975455116</v>
+        <v>2077.019754551161</v>
       </c>
       <c r="Q21" t="n">
-        <v>2334.472168644746</v>
+        <v>2334.472168644747</v>
       </c>
       <c r="R21" t="n">
-        <v>2334.472168644746</v>
+        <v>2326.629995268228</v>
       </c>
       <c r="S21" t="n">
-        <v>2334.472168644746</v>
+        <v>2181.133062767425</v>
       </c>
       <c r="T21" t="n">
-        <v>2251.816061912173</v>
+        <v>1985.005230504608</v>
       </c>
       <c r="U21" t="n">
-        <v>2023.69133530871</v>
+        <v>1756.880503901145</v>
       </c>
       <c r="V21" t="n">
-        <v>1788.539227076967</v>
+        <v>1521.728395669403</v>
       </c>
       <c r="W21" t="n">
-        <v>1534.301870348766</v>
+        <v>1267.491038941201</v>
       </c>
       <c r="X21" t="n">
-        <v>1326.450370143233</v>
+        <v>1059.639538735668</v>
       </c>
       <c r="Y21" t="n">
-        <v>1118.690071378279</v>
+        <v>851.8792399707145</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.8313299666233</v>
+        <v>278.2526959040016</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3622404268113</v>
+        <v>269.7836063641896</v>
       </c>
       <c r="D22" t="n">
-        <v>147.3622404268113</v>
+        <v>269.7836063641896</v>
       </c>
       <c r="E22" t="n">
-        <v>147.3622404268113</v>
+        <v>269.7836063641896</v>
       </c>
       <c r="F22" t="n">
-        <v>147.3622404268113</v>
+        <v>215.1171081333235</v>
       </c>
       <c r="G22" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="H22" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="I22" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289495</v>
       </c>
       <c r="K22" t="n">
-        <v>168.1405915381483</v>
+        <v>168.1405915381484</v>
       </c>
       <c r="L22" t="n">
         <v>379.0826816258174</v>
@@ -5923,7 +5923,7 @@
         <v>844.5778440496397</v>
       </c>
       <c r="O22" t="n">
-        <v>1043.495058868663</v>
+        <v>1043.495058868662</v>
       </c>
       <c r="P22" t="n">
         <v>1190.182417928197</v>
@@ -5932,28 +5932,28 @@
         <v>1208.306061780872</v>
       </c>
       <c r="R22" t="n">
-        <v>1085.884695843493</v>
+        <v>1208.306061780872</v>
       </c>
       <c r="S22" t="n">
-        <v>881.567034078703</v>
+        <v>1164.455493404176</v>
       </c>
       <c r="T22" t="n">
-        <v>656.7034257071441</v>
+        <v>1100.058978420712</v>
       </c>
       <c r="U22" t="n">
-        <v>528.0281161407836</v>
+        <v>810.9165754662569</v>
       </c>
       <c r="V22" t="n">
-        <v>433.8107213229916</v>
+        <v>716.6991806484648</v>
       </c>
       <c r="W22" t="n">
-        <v>304.8606446741259</v>
+        <v>427.2820106115042</v>
       </c>
       <c r="X22" t="n">
-        <v>237.3381871642034</v>
+        <v>359.7595531015817</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.0127014087682</v>
+        <v>299.4340673461464</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>104.8604604147726</v>
       </c>
       <c r="K23" t="n">
-        <v>237.224205032484</v>
+        <v>388.3654869969289</v>
       </c>
       <c r="L23" t="n">
-        <v>851.8194988965759</v>
+        <v>589.4761784560746</v>
       </c>
       <c r="M23" t="n">
-        <v>1107.263330470714</v>
+        <v>844.9200100302128</v>
       </c>
       <c r="N23" t="n">
-        <v>1662.476280925287</v>
+        <v>1109.110998236357</v>
       </c>
       <c r="O23" t="n">
-        <v>2275.601257716598</v>
+        <v>1722.235975027668</v>
       </c>
       <c r="P23" t="n">
-        <v>2442.634136263005</v>
+        <v>2207.849574663843</v>
       </c>
       <c r="Q23" t="n">
-        <v>2519.896125199776</v>
+        <v>2495.30340435392</v>
       </c>
       <c r="R23" t="n">
         <v>2519.896125199776</v>
@@ -6017,7 +6017,7 @@
         <v>2519.896125199776</v>
       </c>
       <c r="T23" t="n">
-        <v>2467.311956313048</v>
+        <v>2467.311956313049</v>
       </c>
       <c r="U23" t="n">
         <v>2374.119302575728</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>954.1832134893115</v>
+        <v>954.1832134893117</v>
       </c>
       <c r="C24" t="n">
-        <v>779.7301842081845</v>
+        <v>779.7301842081847</v>
       </c>
       <c r="D24" t="n">
-        <v>630.7957745469332</v>
+        <v>630.7957745469334</v>
       </c>
       <c r="E24" t="n">
-        <v>471.5583195414778</v>
+        <v>471.5583195414779</v>
       </c>
       <c r="F24" t="n">
         <v>325.0237615683628</v>
@@ -6060,31 +6060,31 @@
         <v>187.796089385232</v>
       </c>
       <c r="H24" t="n">
-        <v>88.94424950257745</v>
+        <v>88.94424950257746</v>
       </c>
       <c r="I24" t="n">
         <v>50.39792250399552</v>
       </c>
       <c r="J24" t="n">
-        <v>188.8477150079298</v>
+        <v>64.01759002092503</v>
       </c>
       <c r="K24" t="n">
-        <v>552.1013054704649</v>
+        <v>165.4505958410074</v>
       </c>
       <c r="L24" t="n">
-        <v>1101.94498241154</v>
+        <v>475.1071879173213</v>
       </c>
       <c r="M24" t="n">
-        <v>1335.9878090133</v>
+        <v>1098.781478904266</v>
       </c>
       <c r="N24" t="n">
-        <v>1589.124810163144</v>
+        <v>1722.45576989121</v>
       </c>
       <c r="O24" t="n">
-        <v>1798.475916689196</v>
+        <v>2321.730572501224</v>
       </c>
       <c r="P24" t="n">
-        <v>2262.44371110619</v>
+        <v>2470.42022596468</v>
       </c>
       <c r="Q24" t="n">
         <v>2519.896125199776</v>
@@ -6099,7 +6099,7 @@
         <v>2255.524541043273</v>
       </c>
       <c r="U24" t="n">
-        <v>2027.39981443981</v>
+        <v>2027.399814439811</v>
       </c>
       <c r="V24" t="n">
         <v>1792.247706208068</v>
@@ -6108,10 +6108,10 @@
         <v>1538.010349479866</v>
       </c>
       <c r="X24" t="n">
-        <v>1330.158849274333</v>
+        <v>1330.158849274334</v>
       </c>
       <c r="Y24" t="n">
-        <v>1122.398550509379</v>
+        <v>1122.39855050938</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>480.4739958739135</v>
+        <v>333.8639130080804</v>
       </c>
       <c r="C25" t="n">
-        <v>472.0049063341015</v>
+        <v>325.3948234682684</v>
       </c>
       <c r="D25" t="n">
-        <v>472.0049063341015</v>
+        <v>325.3948234682684</v>
       </c>
       <c r="E25" t="n">
-        <v>365.7155347623344</v>
+        <v>177.4817298858753</v>
       </c>
       <c r="F25" t="n">
-        <v>218.8255872644241</v>
+        <v>177.4817298858753</v>
       </c>
       <c r="G25" t="n">
-        <v>50.39792250399552</v>
+        <v>169.5211585135416</v>
       </c>
       <c r="H25" t="n">
-        <v>50.39792250399552</v>
+        <v>169.5211585135416</v>
       </c>
       <c r="I25" t="n">
         <v>50.39792250399552</v>
@@ -6169,28 +6169,28 @@
         <v>1212.014540911973</v>
       </c>
       <c r="R25" t="n">
-        <v>1089.593174974594</v>
+        <v>1212.014540911973</v>
       </c>
       <c r="S25" t="n">
-        <v>1045.742606597898</v>
+        <v>1059.59961712016</v>
       </c>
       <c r="T25" t="n">
-        <v>981.3460916144344</v>
+        <v>834.7360087486013</v>
       </c>
       <c r="U25" t="n">
-        <v>852.6707820480739</v>
+        <v>706.0606991822408</v>
       </c>
       <c r="V25" t="n">
-        <v>758.4533872302818</v>
+        <v>611.8433043644487</v>
       </c>
       <c r="W25" t="n">
-        <v>629.503310581416</v>
+        <v>482.893227715583</v>
       </c>
       <c r="X25" t="n">
-        <v>561.9808530714936</v>
+        <v>415.3707702056605</v>
       </c>
       <c r="Y25" t="n">
-        <v>501.6553673160583</v>
+        <v>355.0452844502253</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.021482161254</v>
+        <v>1871.021482161256</v>
       </c>
       <c r="C26" t="n">
-        <v>1582.29251191489</v>
+        <v>1582.292511914892</v>
       </c>
       <c r="D26" t="n">
-        <v>1304.260360002187</v>
+        <v>1304.260360002189</v>
       </c>
       <c r="E26" t="n">
-        <v>998.7056540979904</v>
+        <v>998.7056540979922</v>
       </c>
       <c r="F26" t="n">
-        <v>667.9532960024303</v>
+        <v>667.9532960024321</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4985125508311</v>
+        <v>331.4985125508312</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946169</v>
+        <v>97.59982789946166</v>
       </c>
       <c r="I26" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J26" t="n">
-        <v>128.0028004044474</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K26" t="n">
-        <v>581.2705034676117</v>
+        <v>748.6761524879648</v>
       </c>
       <c r="L26" t="n">
-        <v>1195.865797331703</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M26" t="n">
-        <v>1896.328027063746</v>
+        <v>2063.733676084099</v>
       </c>
       <c r="N26" t="n">
-        <v>2593.492470437754</v>
+        <v>2327.924664290244</v>
       </c>
       <c r="O26" t="n">
-        <v>3206.617447229065</v>
+        <v>2941.049641081554</v>
       </c>
       <c r="P26" t="n">
-        <v>3599.751135746747</v>
+        <v>3389.559294993443</v>
       </c>
       <c r="Q26" t="n">
         <v>3677.013124683519</v>
@@ -6251,25 +6251,25 @@
         <v>3677.013124683519</v>
       </c>
       <c r="S26" t="n">
-        <v>3610.134137617858</v>
+        <v>3610.134137617859</v>
       </c>
       <c r="T26" t="n">
-        <v>3477.316422037083</v>
+        <v>3477.316422037084</v>
       </c>
       <c r="U26" t="n">
-        <v>3303.890221605715</v>
+        <v>3303.890221605717</v>
       </c>
       <c r="V26" t="n">
-        <v>3053.060880956192</v>
+        <v>3053.060880956194</v>
       </c>
       <c r="W26" t="n">
-        <v>2780.525772380126</v>
+        <v>2780.525772380127</v>
       </c>
       <c r="X26" t="n">
-        <v>2487.293560813093</v>
+        <v>2487.293560813095</v>
       </c>
       <c r="Y26" t="n">
-        <v>2177.387775531329</v>
+        <v>2177.387775531331</v>
       </c>
     </row>
     <row r="27">
@@ -6300,10 +6300,10 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I27" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J27" t="n">
-        <v>211.9900549976046</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K27" t="n">
         <v>575.2436454601398</v>
@@ -6312,13 +6312,13 @@
         <v>757.9553805507906</v>
       </c>
       <c r="M27" t="n">
-        <v>990.5282256180558</v>
+        <v>990.5282256180559</v>
       </c>
       <c r="N27" t="n">
         <v>1307.438808052493</v>
       </c>
       <c r="O27" t="n">
-        <v>1906.713610662507</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P27" t="n">
         <v>2370.681405079501</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641314</v>
+        <v>565.9737676641309</v>
       </c>
       <c r="C28" t="n">
-        <v>477.271131430272</v>
+        <v>477.2711314302715</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3880387119837</v>
+        <v>407.3880387119832</v>
       </c>
       <c r="E28" t="n">
-        <v>339.708491823638</v>
+        <v>339.7084918236375</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197751</v>
+        <v>273.0520910197747</v>
       </c>
       <c r="G28" t="n">
-        <v>184.857972953394</v>
+        <v>184.8579729533935</v>
       </c>
       <c r="H28" t="n">
-        <v>112.4299518091693</v>
+        <v>112.4299518091689</v>
       </c>
       <c r="I28" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J28" t="n">
-        <v>147.0742273486941</v>
+        <v>147.0742273486939</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287834</v>
+        <v>347.1622746287833</v>
       </c>
       <c r="L28" t="n">
         <v>636.7412638312883</v>
       </c>
       <c r="M28" t="n">
-        <v>948.1761437746238</v>
+        <v>948.1761437746236</v>
       </c>
       <c r="N28" t="n">
         <v>1259.510224484782</v>
@@ -6415,19 +6415,19 @@
         <v>1548.247143568937</v>
       </c>
       <c r="U28" t="n">
-        <v>1339.338287308529</v>
+        <v>1339.338287308528</v>
       </c>
       <c r="V28" t="n">
         <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.703722453776</v>
+        <v>955.7037224537759</v>
       </c>
       <c r="X28" t="n">
-        <v>807.9477182498061</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.3886858003236</v>
+        <v>667.3886858003232</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>1871.021482161256</v>
       </c>
       <c r="C29" t="n">
-        <v>1582.292511914891</v>
+        <v>1582.292511914892</v>
       </c>
       <c r="D29" t="n">
-        <v>1304.260360002188</v>
+        <v>1304.260360002189</v>
       </c>
       <c r="E29" t="n">
-        <v>998.7056540979916</v>
+        <v>998.7056540979922</v>
       </c>
       <c r="F29" t="n">
-        <v>667.9532960024313</v>
+        <v>667.9532960024321</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4985125508311</v>
+        <v>331.4985125508319</v>
       </c>
       <c r="H29" t="n">
-        <v>97.59982789946166</v>
+        <v>97.59982789946174</v>
       </c>
       <c r="I29" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J29" t="n">
-        <v>128.0028004044475</v>
+        <v>270.3494466905538</v>
       </c>
       <c r="K29" t="n">
-        <v>488.7905923491185</v>
+        <v>723.6171497537182</v>
       </c>
       <c r="L29" t="n">
-        <v>1103.38588621321</v>
+        <v>1338.21244361781</v>
       </c>
       <c r="M29" t="n">
-        <v>1803.848115945253</v>
+        <v>1593.656275191948</v>
       </c>
       <c r="N29" t="n">
-        <v>2501.012559319262</v>
+        <v>2290.820718565957</v>
       </c>
       <c r="O29" t="n">
-        <v>3114.137536110572</v>
+        <v>2903.945695357268</v>
       </c>
       <c r="P29" t="n">
-        <v>3599.751135746747</v>
+        <v>3389.559294993443</v>
       </c>
       <c r="Q29" t="n">
-        <v>3677.013124683519</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="R29" t="n">
-        <v>3677.013124683519</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S29" t="n">
         <v>3610.134137617859</v>
       </c>
       <c r="T29" t="n">
-        <v>3477.316422037084</v>
+        <v>3477.316422037085</v>
       </c>
       <c r="U29" t="n">
-        <v>3303.890221605716</v>
+        <v>3303.890221605718</v>
       </c>
       <c r="V29" t="n">
-        <v>3053.060880956193</v>
+        <v>3053.060880956195</v>
       </c>
       <c r="W29" t="n">
-        <v>2780.525772380126</v>
+        <v>2780.525772380128</v>
       </c>
       <c r="X29" t="n">
-        <v>2487.293560813094</v>
+        <v>2487.293560813095</v>
       </c>
       <c r="Y29" t="n">
-        <v>2177.38777553133</v>
+        <v>2177.387775531331</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I30" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J30" t="n">
         <v>211.9900549976047</v>
@@ -6549,10 +6549,10 @@
         <v>1125.087322401215</v>
       </c>
       <c r="M30" t="n">
-        <v>1444.225502986611</v>
+        <v>1357.660167468481</v>
       </c>
       <c r="N30" t="n">
-        <v>1697.362504136455</v>
+        <v>1610.797168618325</v>
       </c>
       <c r="O30" t="n">
         <v>1906.713610662506</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.9737676641312</v>
+        <v>565.9737676641315</v>
       </c>
       <c r="C31" t="n">
-        <v>477.2711314302717</v>
+        <v>477.271131430272</v>
       </c>
       <c r="D31" t="n">
-        <v>407.3880387119834</v>
+        <v>407.3880387119837</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7084918236378</v>
+        <v>339.708491823638</v>
       </c>
       <c r="F31" t="n">
-        <v>273.0520910197748</v>
+        <v>273.052091019775</v>
       </c>
       <c r="G31" t="n">
-        <v>184.8579729533937</v>
+        <v>184.8579729533938</v>
       </c>
       <c r="H31" t="n">
-        <v>112.429951809169</v>
+        <v>112.4299518091691</v>
       </c>
       <c r="I31" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J31" t="n">
         <v>147.0742273486941</v>
       </c>
       <c r="K31" t="n">
-        <v>347.1622746287835</v>
+        <v>347.1622746287833</v>
       </c>
       <c r="L31" t="n">
-        <v>636.7412638312885</v>
+        <v>636.7412638312883</v>
       </c>
       <c r="M31" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746237</v>
       </c>
       <c r="N31" t="n">
-        <v>1259.510224484783</v>
+        <v>1259.510224484782</v>
       </c>
       <c r="O31" t="n">
         <v>1537.064338418641</v>
       </c>
       <c r="P31" t="n">
-        <v>1762.388596593011</v>
+        <v>1762.388596593012</v>
       </c>
       <c r="Q31" t="n">
-        <v>1859.149139560522</v>
+        <v>1859.149139560523</v>
       </c>
       <c r="R31" t="n">
-        <v>1816.961320317191</v>
+        <v>1816.961320317192</v>
       </c>
       <c r="S31" t="n">
-        <v>1692.877205246448</v>
+        <v>1692.877205246449</v>
       </c>
       <c r="T31" t="n">
         <v>1548.247143568937</v>
@@ -6655,16 +6655,16 @@
         <v>1339.338287308529</v>
       </c>
       <c r="V31" t="n">
-        <v>1164.887345796689</v>
+        <v>1164.88734579669</v>
       </c>
       <c r="W31" t="n">
-        <v>955.703722453776</v>
+        <v>955.7037224537765</v>
       </c>
       <c r="X31" t="n">
-        <v>807.947718249806</v>
+        <v>807.9477182498066</v>
       </c>
       <c r="Y31" t="n">
-        <v>667.3886858003234</v>
+        <v>667.3886858003239</v>
       </c>
     </row>
     <row r="32">
@@ -6692,52 +6692,52 @@
         <v>331.4985125508312</v>
       </c>
       <c r="H32" t="n">
-        <v>97.59982789946169</v>
+        <v>97.59982789946172</v>
       </c>
       <c r="I32" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J32" t="n">
-        <v>128.0028004044475</v>
+        <v>295.4084494248004</v>
       </c>
       <c r="K32" t="n">
-        <v>581.2705034676119</v>
+        <v>748.6761524879648</v>
       </c>
       <c r="L32" t="n">
-        <v>1195.865797331704</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M32" t="n">
-        <v>1896.328027063746</v>
+        <v>2063.733676084099</v>
       </c>
       <c r="N32" t="n">
-        <v>2593.492470437755</v>
+        <v>2760.898119458107</v>
       </c>
       <c r="O32" t="n">
-        <v>3206.617447229066</v>
+        <v>3374.023096249418</v>
       </c>
       <c r="P32" t="n">
-        <v>3599.751135746747</v>
+        <v>3599.751135746748</v>
       </c>
       <c r="Q32" t="n">
-        <v>3677.013124683519</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="R32" t="n">
-        <v>3677.013124683519</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S32" t="n">
-        <v>3610.134137617858</v>
+        <v>3610.134137617859</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.316422037083</v>
+        <v>3477.316422037084</v>
       </c>
       <c r="U32" t="n">
-        <v>3303.890221605715</v>
+        <v>3303.890221605716</v>
       </c>
       <c r="V32" t="n">
-        <v>3053.060880956194</v>
+        <v>3053.060880956193</v>
       </c>
       <c r="W32" t="n">
-        <v>2780.525772380127</v>
+        <v>2780.525772380126</v>
       </c>
       <c r="X32" t="n">
         <v>2487.293560813095</v>
@@ -6774,7 +6774,7 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I33" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J33" t="n">
         <v>211.9900549976047</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641314</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C34" t="n">
-        <v>477.2711314302719</v>
+        <v>477.2711314302716</v>
       </c>
       <c r="D34" t="n">
-        <v>407.3880387119835</v>
+        <v>407.3880387119833</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236378</v>
+        <v>339.7084918236376</v>
       </c>
       <c r="F34" t="n">
-        <v>273.0520910197749</v>
+        <v>273.0520910197747</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533937</v>
+        <v>184.8579729533936</v>
       </c>
       <c r="H34" t="n">
-        <v>112.429951809169</v>
+        <v>112.4299518091689</v>
       </c>
       <c r="I34" t="n">
-        <v>73.54026249367038</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J34" t="n">
-        <v>147.0742273486938</v>
+        <v>147.0742273486941</v>
       </c>
       <c r="K34" t="n">
-        <v>347.1622746287831</v>
+        <v>347.1622746287834</v>
       </c>
       <c r="L34" t="n">
-        <v>636.7412638312881</v>
+        <v>636.7412638312883</v>
       </c>
       <c r="M34" t="n">
-        <v>948.1761437746239</v>
+        <v>948.1761437746238</v>
       </c>
       <c r="N34" t="n">
-        <v>1259.510224484783</v>
+        <v>1259.510224484782</v>
       </c>
       <c r="O34" t="n">
         <v>1537.064338418641</v>
@@ -6883,7 +6883,7 @@
         <v>1816.961320317191</v>
       </c>
       <c r="S34" t="n">
-        <v>1692.877205246449</v>
+        <v>1692.877205246448</v>
       </c>
       <c r="T34" t="n">
         <v>1548.247143568937</v>
@@ -6895,13 +6895,13 @@
         <v>1164.887345796689</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7037224537762</v>
+        <v>955.7037224537761</v>
       </c>
       <c r="X34" t="n">
-        <v>807.9477182498065</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003237</v>
+        <v>667.3886858003234</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1426.088700803847</v>
+        <v>1426.088700803849</v>
       </c>
       <c r="C35" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D35" t="n">
-        <v>993.0855527761011</v>
+        <v>993.0855527761028</v>
       </c>
       <c r="E35" t="n">
-        <v>754.4098339375646</v>
+        <v>754.4098339375663</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076648</v>
+        <v>490.5364629076665</v>
       </c>
       <c r="G35" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H35" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I35" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J35" t="n">
-        <v>108.4035068467937</v>
+        <v>275.8091558671467</v>
       </c>
       <c r="K35" t="n">
-        <v>266.9865069459554</v>
+        <v>729.0768589303111</v>
       </c>
       <c r="L35" t="n">
-        <v>881.5818008100473</v>
+        <v>1143.620679507247</v>
       </c>
       <c r="M35" t="n">
-        <v>1549.101291393253</v>
+        <v>1399.064511081385</v>
       </c>
       <c r="N35" t="n">
-        <v>2216.620781976458</v>
+        <v>1663.25549928753</v>
       </c>
       <c r="O35" t="n">
-        <v>2452.753579317651</v>
+        <v>1899.388296628722</v>
       </c>
       <c r="P35" t="n">
-        <v>2619.786457864058</v>
+        <v>2385.001896264897</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.04844680083</v>
+        <v>2672.455725954974</v>
       </c>
       <c r="R35" t="n">
         <v>2697.04844680083</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="T35" t="n">
-        <v>2631.109718285714</v>
+        <v>2631.109718285716</v>
       </c>
       <c r="U35" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920008</v>
       </c>
       <c r="V35" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W35" t="n">
-        <v>2134.956029825737</v>
+        <v>2134.956029825739</v>
       </c>
       <c r="X35" t="n">
-        <v>1908.602805324365</v>
+        <v>1908.602805324367</v>
       </c>
       <c r="Y35" t="n">
-        <v>1665.576007108261</v>
+        <v>1665.576007108263</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459852</v>
+        <v>92.48729593459854</v>
       </c>
       <c r="I36" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J36" t="n">
-        <v>67.56063645294613</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K36" t="n">
-        <v>168.9936422730285</v>
+        <v>555.6443519024861</v>
       </c>
       <c r="L36" t="n">
-        <v>476.0551891404571</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M36" t="n">
-        <v>1143.574679723662</v>
+        <v>1424.626209428958</v>
       </c>
       <c r="N36" t="n">
-        <v>1811.094170306868</v>
+        <v>1677.763210578802</v>
       </c>
       <c r="O36" t="n">
-        <v>2410.368972916882</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P36" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q36" t="n">
         <v>2608.534525615434</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.4334486588142</v>
+        <v>253.3233961567244</v>
       </c>
       <c r="C37" t="n">
-        <v>84.60979949061506</v>
+        <v>231.4997469885253</v>
       </c>
       <c r="D37" t="n">
-        <v>81.6056938379871</v>
+        <v>228.4956413358974</v>
       </c>
       <c r="E37" t="n">
-        <v>80.80513401530176</v>
+        <v>227.6950815132121</v>
       </c>
       <c r="F37" t="n">
-        <v>80.80513401530176</v>
+        <v>80.80513401530172</v>
       </c>
       <c r="G37" t="n">
-        <v>59.49000301458096</v>
+        <v>59.49000301458094</v>
       </c>
       <c r="H37" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I37" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J37" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="K37" t="n">
         <v>175.39211710127</v>
@@ -7123,22 +7123,22 @@
         <v>1158.352459338911</v>
       </c>
       <c r="T37" t="n">
-        <v>981.6579696890732</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U37" t="n">
-        <v>692.5155667346178</v>
+        <v>938.5715155323126</v>
       </c>
       <c r="V37" t="n">
-        <v>437.8310785287309</v>
+        <v>830.9995610861334</v>
       </c>
       <c r="W37" t="n">
-        <v>295.526442251478</v>
+        <v>589.5289235090959</v>
       </c>
       <c r="X37" t="n">
-        <v>214.6494251131685</v>
+        <v>361.5393726110786</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.9693797293461</v>
+        <v>287.8593272272563</v>
       </c>
     </row>
     <row r="38">
@@ -7166,40 +7166,40 @@
         <v>220.9606665217257</v>
       </c>
       <c r="H38" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I38" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J38" t="n">
-        <v>108.4035068467937</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K38" t="n">
-        <v>561.6712099099582</v>
+        <v>729.076858930311</v>
       </c>
       <c r="L38" t="n">
-        <v>1176.26650377405</v>
+        <v>1143.620679507246</v>
       </c>
       <c r="M38" t="n">
-        <v>1431.710335348188</v>
+        <v>1399.064511081384</v>
       </c>
       <c r="N38" t="n">
-        <v>1695.901323554333</v>
+        <v>1663.255499287529</v>
       </c>
       <c r="O38" t="n">
-        <v>2309.026300345643</v>
+        <v>1899.388296628721</v>
       </c>
       <c r="P38" t="n">
-        <v>2595.193737018202</v>
+        <v>2385.001896264896</v>
       </c>
       <c r="Q38" t="n">
-        <v>2672.455725954974</v>
+        <v>2672.455725954973</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T38" t="n">
         <v>2631.109718285715</v>
@@ -7211,7 +7211,7 @@
         <v>2340.612151336145</v>
       </c>
       <c r="W38" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X38" t="n">
         <v>1908.602805324366</v>
@@ -7248,10 +7248,10 @@
         <v>92.48729593459852</v>
       </c>
       <c r="I39" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J39" t="n">
-        <v>192.3907614399509</v>
+        <v>192.3907614399508</v>
       </c>
       <c r="K39" t="n">
         <v>555.6443519024861</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.4334486588142</v>
+        <v>253.5459824185219</v>
       </c>
       <c r="C40" t="n">
-        <v>84.60979949061506</v>
+        <v>231.7223332503227</v>
       </c>
       <c r="D40" t="n">
-        <v>81.6056938379871</v>
+        <v>81.60569383798702</v>
       </c>
       <c r="E40" t="n">
-        <v>80.80513401530176</v>
+        <v>80.8051340153017</v>
       </c>
       <c r="F40" t="n">
-        <v>80.80513401530176</v>
+        <v>80.8051340153017</v>
       </c>
       <c r="G40" t="n">
-        <v>59.49000301458096</v>
+        <v>59.49000301458092</v>
       </c>
       <c r="H40" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I40" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J40" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K40" t="n">
         <v>175.39211710127</v>
       </c>
       <c r="L40" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M40" t="n">
         <v>619.1321880174387</v>
@@ -7363,19 +7363,19 @@
         <v>1080.60138472706</v>
       </c>
       <c r="U40" t="n">
-        <v>938.5715155323123</v>
+        <v>938.5715155323126</v>
       </c>
       <c r="V40" t="n">
-        <v>830.9995610861332</v>
+        <v>830.9995610861334</v>
       </c>
       <c r="W40" t="n">
-        <v>688.6949248088804</v>
+        <v>688.6949248088806</v>
       </c>
       <c r="X40" t="n">
-        <v>508.8744926325841</v>
+        <v>607.8179076705711</v>
       </c>
       <c r="Y40" t="n">
-        <v>288.0819134890539</v>
+        <v>435.1944472487615</v>
       </c>
     </row>
     <row r="41">
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1426.088700803849</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C41" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761024</v>
+        <v>993.0855527761015</v>
       </c>
       <c r="E41" t="n">
-        <v>754.4098339375661</v>
+        <v>754.4098339375651</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076664</v>
+        <v>490.5364629076653</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9606665217256</v>
+        <v>220.9606665217257</v>
       </c>
       <c r="H41" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I41" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J41" t="n">
-        <v>108.4035068467937</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K41" t="n">
-        <v>266.9865069459554</v>
+        <v>729.076858930311</v>
       </c>
       <c r="L41" t="n">
-        <v>881.5818008100473</v>
+        <v>930.1875503894568</v>
       </c>
       <c r="M41" t="n">
-        <v>1549.101291393253</v>
+        <v>1185.631381963595</v>
       </c>
       <c r="N41" t="n">
-        <v>2216.620781976458</v>
+        <v>1853.1508725468</v>
       </c>
       <c r="O41" t="n">
-        <v>2452.753579317651</v>
+        <v>2089.283669887993</v>
       </c>
       <c r="P41" t="n">
-        <v>2619.786457864058</v>
+        <v>2574.897269524168</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T41" t="n">
         <v>2631.109718285715</v>
@@ -7448,13 +7448,13 @@
         <v>2340.612151336145</v>
       </c>
       <c r="W41" t="n">
-        <v>2134.956029825739</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X41" t="n">
-        <v>1908.602805324367</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y41" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>92.48729593459852</v>
       </c>
       <c r="I42" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J42" t="n">
-        <v>67.56063645294613</v>
+        <v>192.3907614399508</v>
       </c>
       <c r="K42" t="n">
-        <v>168.9936422730285</v>
+        <v>555.6443519024861</v>
       </c>
       <c r="L42" t="n">
-        <v>718.8373192141039</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M42" t="n">
-        <v>1386.356809797309</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N42" t="n">
-        <v>1811.094170306868</v>
+        <v>1591.197875060671</v>
       </c>
       <c r="O42" t="n">
-        <v>2410.368972916882</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P42" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.534525615434</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>400.6585161782295</v>
+        <v>352.4893974565088</v>
       </c>
       <c r="C43" t="n">
-        <v>378.8348670100305</v>
+        <v>330.6657482883097</v>
       </c>
       <c r="D43" t="n">
-        <v>375.8307613574026</v>
+        <v>327.6616426356817</v>
       </c>
       <c r="E43" t="n">
-        <v>375.0302015347173</v>
+        <v>179.7485490532886</v>
       </c>
       <c r="F43" t="n">
-        <v>375.0302015347173</v>
+        <v>179.7485490532886</v>
       </c>
       <c r="G43" t="n">
-        <v>206.6025367742887</v>
+        <v>59.49000301458095</v>
       </c>
       <c r="H43" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I43" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J43" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K43" t="n">
         <v>175.39211710127</v>
       </c>
       <c r="L43" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M43" t="n">
         <v>619.1321880174387</v>
@@ -7594,25 +7594,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S43" t="n">
-        <v>1059.409044300923</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T43" t="n">
-        <v>981.6579696890724</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U43" t="n">
-        <v>839.6281004943248</v>
+        <v>938.5715155323123</v>
       </c>
       <c r="V43" t="n">
-        <v>732.0561460481458</v>
+        <v>830.9995610861332</v>
       </c>
       <c r="W43" t="n">
-        <v>589.751509770893</v>
+        <v>541.5823910491727</v>
       </c>
       <c r="X43" t="n">
-        <v>508.8744926325836</v>
+        <v>460.7053739108631</v>
       </c>
       <c r="Y43" t="n">
-        <v>435.1944472487613</v>
+        <v>387.0253285270408</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>754.4098339375655</v>
       </c>
       <c r="F44" t="n">
-        <v>490.5364629076656</v>
+        <v>490.5364629076657</v>
       </c>
       <c r="G44" t="n">
         <v>220.9606665217256</v>
@@ -7646,34 +7646,34 @@
         <v>53.94096893601659</v>
       </c>
       <c r="J44" t="n">
-        <v>275.8091558671467</v>
+        <v>275.8091558671466</v>
       </c>
       <c r="K44" t="n">
-        <v>408.1729004848581</v>
+        <v>729.076858930311</v>
       </c>
       <c r="L44" t="n">
-        <v>1022.76819434895</v>
+        <v>1143.620679507246</v>
       </c>
       <c r="M44" t="n">
-        <v>1690.287684932155</v>
+        <v>1399.064511081384</v>
       </c>
       <c r="N44" t="n">
-        <v>2216.620781976458</v>
+        <v>1663.255499287529</v>
       </c>
       <c r="O44" t="n">
-        <v>2452.753579317651</v>
+        <v>1899.388296628721</v>
       </c>
       <c r="P44" t="n">
-        <v>2619.786457864058</v>
+        <v>2385.001896264896</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.048446800829</v>
+        <v>2672.455725954973</v>
       </c>
       <c r="R44" t="n">
         <v>2697.048446800829</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="T44" t="n">
         <v>2631.109718285715</v>
@@ -7719,28 +7719,28 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459852</v>
       </c>
       <c r="I45" t="n">
         <v>53.94096893601659</v>
       </c>
       <c r="J45" t="n">
-        <v>192.3907614399509</v>
+        <v>192.3907614399508</v>
       </c>
       <c r="K45" t="n">
-        <v>293.8237672600333</v>
+        <v>555.6443519024861</v>
       </c>
       <c r="L45" t="n">
-        <v>476.5355023506842</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M45" t="n">
-        <v>1144.054992933889</v>
+        <v>1424.626209428958</v>
       </c>
       <c r="N45" t="n">
-        <v>1811.574483517095</v>
+        <v>1677.763210578802</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.925590043146</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P45" t="n">
         <v>2351.082111521847</v>
@@ -7783,16 +7783,16 @@
         <v>106.4334486588139</v>
       </c>
       <c r="C46" t="n">
-        <v>84.6097994906148</v>
+        <v>84.60979949061482</v>
       </c>
       <c r="D46" t="n">
-        <v>81.60569383798692</v>
+        <v>81.60569383798693</v>
       </c>
       <c r="E46" t="n">
-        <v>80.80513401530163</v>
+        <v>80.80513401530165</v>
       </c>
       <c r="F46" t="n">
-        <v>80.80513401530163</v>
+        <v>80.80513401530165</v>
       </c>
       <c r="G46" t="n">
         <v>59.49000301458089</v>
@@ -7810,7 +7810,7 @@
         <v>175.39211710127</v>
       </c>
       <c r="L46" t="n">
-        <v>386.3342071889391</v>
+        <v>386.334207188939</v>
       </c>
       <c r="M46" t="n">
         <v>619.1321880174387</v>
@@ -7834,13 +7834,13 @@
         <v>1158.352459338911</v>
       </c>
       <c r="T46" t="n">
-        <v>981.6579696890726</v>
+        <v>981.6579696890725</v>
       </c>
       <c r="U46" t="n">
-        <v>692.5155667346172</v>
+        <v>839.6281004943249</v>
       </c>
       <c r="V46" t="n">
-        <v>437.8310785287304</v>
+        <v>584.9436122884381</v>
       </c>
       <c r="W46" t="n">
         <v>295.5264422514775</v>
@@ -7849,7 +7849,7 @@
         <v>214.649425113168</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.9693797293457</v>
+        <v>140.9693797293458</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>345.1000650488706</v>
+        <v>203.3149681418714</v>
       </c>
       <c r="P11" t="n">
-        <v>239.6265089249783</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8772,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>136.3966111758622</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>327.9241016057888</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>179.312854873533</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>50.61287514246257</v>
       </c>
       <c r="K14" t="n">
-        <v>205.6616725415526</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>188.7741878393845</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.01113027177381</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>180.8205403740212</v>
+        <v>180.8205403740221</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>136.3966111758621</v>
+        <v>262.4876465162714</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>50.61287514246121</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>178.4738359743401</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>188.7741878393834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>327.9241016057888</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>179.312854873533</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>152.6679615802475</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>293.9615780287153</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>128.2271282683466</v>
       </c>
       <c r="M24" t="n">
-        <v>1.484829832822385</v>
+        <v>395.0519655754335</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>374.2800907445459</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9884,19 +9884,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>228.3846565366418</v>
+        <v>284.319975116648</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>40.875287705451</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>64.41775887332616</v>
+        <v>64.41775887332599</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>143.7844911980872</v>
       </c>
       <c r="K29" t="n">
-        <v>230.7313609363228</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>87.43973284659609</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>87.43973284659603</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>228.3846565366408</v>
+        <v>59.28804136456904</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>87.43973284659609</v>
+        <v>87.43973284659614</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>26.48409644590944</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>215.5890193108992</v>
       </c>
       <c r="M35" t="n">
-        <v>416.2380394030982</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>407.402527653597</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>125.6058704815936</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>439.3400459756969</v>
+        <v>87.4397328465966</v>
       </c>
       <c r="N36" t="n">
-        <v>418.5681711448093</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>215.5890193108984</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,13 +10835,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>120.3379375011633</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10908,7 +10908,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>87.43973284659654</v>
+        <v>87.4397328465966</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>26.48409644590944</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>416.2380394030982</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>407.402527653597</v>
+        <v>407.4025276535969</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>45.34261448473708</v>
       </c>
       <c r="R41" t="n">
-        <v>40.87528770545094</v>
+        <v>40.87528770545097</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>439.340045975697</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>173.3336963229439</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>87.43973284659648</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,28 +11297,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>215.5890193108984</v>
       </c>
       <c r="M44" t="n">
-        <v>416.2380394030981</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>264.7900089274322</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>40.87528770545094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>439.3400459756969</v>
+        <v>87.4397328465966</v>
       </c>
       <c r="N45" t="n">
-        <v>418.5681711448092</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>183.2998666820652</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>327.4448345146045</v>
+        <v>233.7278314989761</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.21019719500377</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>171.6919384270541</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>206.2898457268509</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X11" t="n">
-        <v>290.2998894513621</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.8067274289467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.3026304363736</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E14" t="n">
-        <v>302.4991588451549</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>160.3650307846263</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500376</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.4895384249674</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.6919384270541</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>20.53304479131805</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.8067274289467</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>179.8983226496893</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23786,10 +23786,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>92.26072719994707</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>87.63759544974262</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>179.89832264969</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>92.26072719994707</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>87.63759544974107</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798759.718277741</v>
+        <v>798759.7182777412</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914550.5236575131</v>
+        <v>914550.5236575132</v>
       </c>
     </row>
     <row r="10">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698525</v>
       </c>
       <c r="E2" t="n">
         <v>520086.0901280834</v>
       </c>
       <c r="F2" t="n">
-        <v>520086.0901280833</v>
+        <v>520086.0901280834</v>
       </c>
       <c r="G2" t="n">
-        <v>584873.3509514916</v>
+        <v>584873.3509514915</v>
       </c>
       <c r="H2" t="n">
-        <v>584873.3509514915</v>
+        <v>584873.3509514917</v>
       </c>
       <c r="I2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="J2" t="n">
-        <v>595255.283151606</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="K2" t="n">
         <v>595255.2831516057</v>
       </c>
       <c r="L2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="M2" t="n">
         <v>595255.2831516057</v>
@@ -26350,10 +26350,10 @@
         <v>595255.2831516057</v>
       </c>
       <c r="O2" t="n">
-        <v>595255.2831516059</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516059</v>
+        <v>595255.2831516057</v>
       </c>
     </row>
     <row r="3">
@@ -26375,25 +26375,25 @@
         <v>793631.672415043</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.96898168559</v>
+        <v>63544.96898168557</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776751</v>
+        <v>12327.03098776745</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.1800532311</v>
+        <v>75688.18005323113</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.96898168557</v>
+        <v>63544.9689816856</v>
       </c>
       <c r="M3" t="n">
         <v>137355.32893797</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>436273.8797192482</v>
       </c>
       <c r="E4" t="n">
-        <v>150591.8022177843</v>
+        <v>150591.8022177844</v>
       </c>
       <c r="F4" t="n">
         <v>150591.8022177843</v>
       </c>
       <c r="G4" t="n">
-        <v>201402.0326272213</v>
+        <v>201402.0326272214</v>
       </c>
       <c r="H4" t="n">
-        <v>201402.0326272213</v>
+        <v>201402.0326272214</v>
       </c>
       <c r="I4" t="n">
-        <v>206599.1074736612</v>
+        <v>206599.1074736613</v>
       </c>
       <c r="J4" t="n">
         <v>194191.1180738481</v>
@@ -26445,19 +26445,19 @@
         <v>194191.118073848</v>
       </c>
       <c r="L4" t="n">
-        <v>194191.118073848</v>
+        <v>194191.1180738481</v>
       </c>
       <c r="M4" t="n">
-        <v>204259.4638285999</v>
+        <v>204259.4638286</v>
       </c>
       <c r="N4" t="n">
-        <v>204259.4638285999</v>
+        <v>204259.4638286</v>
       </c>
       <c r="O4" t="n">
         <v>204259.4638285999</v>
       </c>
       <c r="P4" t="n">
-        <v>204259.4638285999</v>
+        <v>204259.4638286</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57243.92344591296</v>
+        <v>57243.92344591297</v>
       </c>
       <c r="F5" t="n">
-        <v>57243.92344591296</v>
+        <v>57243.92344591297</v>
       </c>
       <c r="G5" t="n">
-        <v>63921.62594256461</v>
+        <v>63921.62594256462</v>
       </c>
       <c r="H5" t="n">
-        <v>63921.62594256461</v>
+        <v>63921.62594256462</v>
       </c>
       <c r="I5" t="n">
         <v>66740.07008220107</v>
       </c>
       <c r="J5" t="n">
-        <v>77650.54597770229</v>
+        <v>77650.54597770231</v>
       </c>
       <c r="K5" t="n">
-        <v>77650.54597770229</v>
+        <v>77650.54597770231</v>
       </c>
       <c r="L5" t="n">
-        <v>77650.54597770229</v>
+        <v>77650.54597770231</v>
       </c>
       <c r="M5" t="n">
         <v>68321.30794187219</v>
@@ -26506,7 +26506,7 @@
         <v>68321.30794187219</v>
       </c>
       <c r="O5" t="n">
-        <v>68321.30794187219</v>
+        <v>68321.30794187218</v>
       </c>
       <c r="P5" t="n">
         <v>68321.30794187219</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124073.8658506046</v>
+        <v>124069.4522727364</v>
       </c>
       <c r="C6" t="n">
-        <v>124073.8658506046</v>
+        <v>124069.4522727364</v>
       </c>
       <c r="D6" t="n">
-        <v>124073.8658506045</v>
+        <v>124069.4522727362</v>
       </c>
       <c r="E6" t="n">
-        <v>-481381.3079506568</v>
+        <v>-481640.5120645312</v>
       </c>
       <c r="F6" t="n">
-        <v>312250.3644643861</v>
+        <v>311991.1603505118</v>
       </c>
       <c r="G6" t="n">
-        <v>256004.7234000201</v>
+        <v>255968.9236338126</v>
       </c>
       <c r="H6" t="n">
-        <v>319549.6923817056</v>
+        <v>319513.8926154985</v>
       </c>
       <c r="I6" t="n">
-        <v>309589.0746079754</v>
+        <v>309589.0746079751</v>
       </c>
       <c r="J6" t="n">
-        <v>247725.4390468245</v>
+        <v>247725.4390468242</v>
       </c>
       <c r="K6" t="n">
-        <v>323413.6191000555</v>
+        <v>323413.6191000554</v>
       </c>
       <c r="L6" t="n">
-        <v>259868.6501183694</v>
+        <v>259868.6501183696</v>
       </c>
       <c r="M6" t="n">
-        <v>185319.1824431637</v>
+        <v>185319.1824431636</v>
       </c>
       <c r="N6" t="n">
-        <v>322674.5113811337</v>
+        <v>322674.5113811336</v>
       </c>
       <c r="O6" t="n">
         <v>322674.5113811337</v>
       </c>
       <c r="P6" t="n">
-        <v>322674.5113811338</v>
+        <v>322674.5113811336</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G2" t="n">
         <v>158.8624224542139</v>
@@ -26707,13 +26707,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="K2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M2" t="n">
         <v>145.6414084221107</v>
@@ -26722,7 +26722,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="O2" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="P2" t="n">
         <v>145.6414084221107</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="J3" t="n">
-        <v>691.8460543973005</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="K3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="O3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="P3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
     </row>
     <row r="4">
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="F4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="G4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="H4" t="n">
-        <v>583.6180421611866</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="I4" t="n">
         <v>629.974031299944</v>
       </c>
       <c r="J4" t="n">
-        <v>919.2532811708797</v>
+        <v>919.2532811708799</v>
       </c>
       <c r="K4" t="n">
-        <v>919.2532811708797</v>
+        <v>919.25328117088</v>
       </c>
       <c r="L4" t="n">
-        <v>919.2532811708797</v>
+        <v>919.25328117088</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2621117002075</v>
+        <v>674.2621117002076</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2621117002075</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2621117002075</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="P4" t="n">
         <v>674.2621117002074</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.431211227107</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500376</v>
+        <v>66.21019719500377</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973007</v>
+        <v>691.8460543973006</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.35598913875742</v>
+        <v>46.3559891387572</v>
       </c>
       <c r="J4" t="n">
-        <v>289.2792498709357</v>
+        <v>289.2792498709358</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710699</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="12">
@@ -28175,19 +28175,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>79.43121122710693</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>79.43121122710693</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>67.11943691067901</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,22 +28217,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>79.43121122710693</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>25.84908941216861</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="O13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="R13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="15">
@@ -28412,16 +28412,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>67.11943691067944</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>79.43121122710693</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>79.43121122710693</v>
+        <v>67.11943691067852</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I15" t="n">
         <v>38.16086372859611</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="M16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="N16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="P16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="R16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="S16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="17">
@@ -28649,19 +28649,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>8.634321154260448</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.863321483828</v>
+        <v>74.17614454634359</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28725,25 +28725,25 @@
         <v>158.8624224542139</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>68.62580553072718</v>
+        <v>64.50432778543821</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315288</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,13 +28767,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.1971522780048</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="T19" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>158.8624224542139</v>
@@ -28886,10 +28886,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>80.91264697150898</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>38.16086372859611</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,13 +28925,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754528</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0419631757947</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>112.3370082749404</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28968,10 +28968,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>91.30121477437388</v>
       </c>
       <c r="G22" t="n">
-        <v>67.07731902944711</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>151.1349521598894</v>
@@ -28980,7 +28980,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,22 +29004,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="W22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>158.8624224542139</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754528</v>
+        <v>7.763751642754542</v>
       </c>
       <c r="S24" t="n">
         <v>76.48064880104485</v>
@@ -29202,22 +29202,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>41.2074847905198</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H25" t="n">
         <v>151.1349521598894</v>
       </c>
       <c r="I25" t="n">
-        <v>117.9320036494506</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,13 +29241,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S25" t="n">
-        <v>158.8624224542139</v>
+        <v>51.3837105932482</v>
       </c>
       <c r="T25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>158.8624224542139</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710697</v>
+        <v>79.43121122710699</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="C29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="D29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="E29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="F29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="G29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="H29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="I29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="T29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="U29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="V29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="W29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="X29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="C31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="D31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="E31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="F31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="G31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="H31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="I31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="J31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="K31" t="n">
-        <v>79.43121122710701</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="L31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="M31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="N31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="O31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="P31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710809</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="R31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="T31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="U31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="V31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="W31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="X31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271069</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V32" t="n">
-        <v>79.43121122710835</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710761</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="O34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="P34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="R34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.43121122710693</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="35">
@@ -30153,7 +30153,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>145.6414084221107</v>
@@ -30165,7 +30165,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30195,19 +30195,19 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T37" t="n">
-        <v>47.68742753450374</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="W37" t="n">
-        <v>145.6414084221107</v>
+        <v>47.46706713532382</v>
       </c>
       <c r="X37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>145.6414084221107</v>
@@ -30384,7 +30384,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="D40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>145.6414084221107</v>
@@ -30402,7 +30402,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30444,10 +30444,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="X40" t="n">
-        <v>47.6874275345038</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>47.68742753450334</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="C41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="D41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="E41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="G41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="H41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="I41" t="n">
         <v>103.2501809788403</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="U41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="W41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="X41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="C43" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="D43" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="E43" t="n">
-        <v>145.6414084221108</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>47.68742753450374</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="I43" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S43" t="n">
-        <v>47.68742753450277</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T43" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="U43" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V43" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="W43" t="n">
-        <v>145.6414084221108</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315288</v>
+        <v>5.154479050315302</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30906,16 +30906,16 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T46" t="n">
-        <v>47.68742753450317</v>
+        <v>47.68742753450306</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>145.6414084221107</v>
@@ -31753,46 +31753,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H11" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I11" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J11" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K11" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L11" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M11" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N11" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P11" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R11" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T11" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,7 +31832,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H12" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I12" t="n">
         <v>51.23576912281897</v>
@@ -31841,7 +31841,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K12" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L12" t="n">
         <v>323.1116879522488</v>
@@ -31859,19 +31859,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S12" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T12" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,22 +31914,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I13" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J13" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K13" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L13" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M13" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N13" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O13" t="n">
         <v>176.341351701135</v>
@@ -31941,16 +31941,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S13" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,46 +31990,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H14" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I14" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J14" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K14" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L14" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M14" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N14" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O14" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P14" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q14" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R14" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T14" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,7 +32069,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H15" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I15" t="n">
         <v>51.23576912281897</v>
@@ -32078,7 +32078,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K15" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L15" t="n">
         <v>323.1116879522488</v>
@@ -32096,19 +32096,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S15" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T15" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,22 +32151,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I16" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J16" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K16" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L16" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M16" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N16" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O16" t="n">
         <v>176.341351701135</v>
@@ -32178,16 +32178,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R16" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S16" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,46 +32227,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H17" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I17" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J17" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K17" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L17" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M17" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N17" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O17" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P17" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R17" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,7 +32306,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H18" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I18" t="n">
         <v>51.23576912281897</v>
@@ -32315,7 +32315,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K18" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L18" t="n">
         <v>323.1116879522488</v>
@@ -32333,19 +32333,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S18" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T18" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,22 +32388,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I19" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J19" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K19" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L19" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M19" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N19" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O19" t="n">
         <v>176.341351701135</v>
@@ -32415,16 +32415,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S19" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,46 +32464,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H20" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I20" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J20" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K20" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L20" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M20" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N20" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O20" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P20" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q20" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R20" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,7 +32543,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H21" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I21" t="n">
         <v>51.23576912281897</v>
@@ -32552,7 +32552,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K21" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L21" t="n">
         <v>323.1116879522488</v>
@@ -32570,19 +32570,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q21" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S21" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T21" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,22 +32625,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I22" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J22" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K22" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L22" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M22" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N22" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O22" t="n">
         <v>176.341351701135</v>
@@ -32652,16 +32652,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S22" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,46 +32701,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H23" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I23" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J23" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K23" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L23" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M23" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N23" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O23" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P23" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q23" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R23" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,7 +32780,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H24" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I24" t="n">
         <v>51.23576912281897</v>
@@ -32789,7 +32789,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K24" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L24" t="n">
         <v>323.1116879522488</v>
@@ -32807,19 +32807,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S24" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T24" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,22 +32862,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I25" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J25" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K25" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L25" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M25" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N25" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O25" t="n">
         <v>176.341351701135</v>
@@ -32889,16 +32889,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S25" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.781290670943919</v>
+        <v>2.78129067094392</v>
       </c>
       <c r="H26" t="n">
         <v>28.48389308380442</v>
       </c>
       <c r="I26" t="n">
-        <v>107.2257085915655</v>
+        <v>107.2257085915656</v>
       </c>
       <c r="J26" t="n">
         <v>236.0585690830267</v>
       </c>
       <c r="K26" t="n">
-        <v>353.7906031840828</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L26" t="n">
-        <v>438.9085275549829</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M26" t="n">
-        <v>488.3703055243818</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N26" t="n">
-        <v>496.2726476432013</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O26" t="n">
         <v>468.6161885340027</v>
       </c>
       <c r="P26" t="n">
-        <v>399.9530750950746</v>
+        <v>399.9530750950747</v>
       </c>
       <c r="Q26" t="n">
         <v>300.3481029418954</v>
       </c>
       <c r="R26" t="n">
-        <v>174.7102501086811</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S26" t="n">
         <v>63.37866116413463</v>
       </c>
       <c r="T26" t="n">
-        <v>12.17509991205701</v>
+        <v>12.17509991205702</v>
       </c>
       <c r="U26" t="n">
         <v>0.2225032536755135</v>
@@ -33020,7 +33020,7 @@
         <v>14.37212275266845</v>
       </c>
       <c r="I27" t="n">
-        <v>51.23576912281896</v>
+        <v>51.23576912281897</v>
       </c>
       <c r="J27" t="n">
         <v>140.5948665827571</v>
@@ -33029,34 +33029,34 @@
         <v>240.2990206108058</v>
       </c>
       <c r="L27" t="n">
-        <v>323.1116879522487</v>
+        <v>323.1116879522488</v>
       </c>
       <c r="M27" t="n">
-        <v>377.0560996465287</v>
+        <v>377.0560996465288</v>
       </c>
       <c r="N27" t="n">
-        <v>387.0356526387313</v>
+        <v>387.0356526387314</v>
       </c>
       <c r="O27" t="n">
-        <v>354.0620086121732</v>
+        <v>354.0620086121733</v>
       </c>
       <c r="P27" t="n">
-        <v>284.1659765693365</v>
+        <v>284.1659765693366</v>
       </c>
       <c r="Q27" t="n">
         <v>189.9574298790475</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988858</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S27" t="n">
-        <v>27.64120792804307</v>
+        <v>27.64120792804308</v>
       </c>
       <c r="T27" t="n">
-        <v>5.998174754633197</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678784</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,25 +33099,25 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I28" t="n">
-        <v>37.51847127780771</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J28" t="n">
-        <v>88.20470106635746</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K28" t="n">
-        <v>144.9474192655327</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L28" t="n">
         <v>185.4827930100566</v>
       </c>
       <c r="M28" t="n">
-        <v>195.5655986225024</v>
+        <v>195.5655986225025</v>
       </c>
       <c r="N28" t="n">
         <v>190.915485797865</v>
       </c>
       <c r="O28" t="n">
-        <v>176.3413517011349</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P28" t="n">
         <v>150.8904902901915</v>
@@ -33132,10 +33132,10 @@
         <v>21.74211288982991</v>
       </c>
       <c r="T28" t="n">
-        <v>5.330617140438215</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06805043158006241</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,46 +33175,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H29" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I29" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J29" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K29" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L29" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M29" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N29" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O29" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P29" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q29" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R29" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S29" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T29" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,7 +33254,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H30" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I30" t="n">
         <v>51.23576912281897</v>
@@ -33263,7 +33263,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K30" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L30" t="n">
         <v>323.1116879522488</v>
@@ -33281,19 +33281,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q30" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S30" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T30" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,22 +33336,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I31" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J31" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K31" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L31" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M31" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N31" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O31" t="n">
         <v>176.341351701135</v>
@@ -33363,16 +33363,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R31" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S31" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T31" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,46 +33412,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H32" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I32" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J32" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K32" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L32" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M32" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N32" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O32" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P32" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q32" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R32" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T32" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,7 +33491,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H33" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I33" t="n">
         <v>51.23576912281897</v>
@@ -33500,7 +33500,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K33" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L33" t="n">
         <v>323.1116879522488</v>
@@ -33518,19 +33518,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q33" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S33" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T33" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,22 +33573,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I34" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J34" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K34" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L34" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M34" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N34" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O34" t="n">
         <v>176.341351701135</v>
@@ -33600,16 +33600,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R34" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S34" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,46 +33649,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H35" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I35" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J35" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K35" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L35" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M35" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N35" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O35" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P35" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q35" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R35" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T35" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,7 +33728,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H36" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I36" t="n">
         <v>51.23576912281897</v>
@@ -33737,7 +33737,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K36" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L36" t="n">
         <v>323.1116879522488</v>
@@ -33755,19 +33755,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q36" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S36" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T36" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,22 +33810,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I37" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J37" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K37" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L37" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M37" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N37" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O37" t="n">
         <v>176.341351701135</v>
@@ -33837,16 +33837,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R37" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S37" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,46 +33886,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H38" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I38" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J38" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K38" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L38" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M38" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N38" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O38" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P38" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q38" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R38" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T38" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,7 +33965,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H39" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I39" t="n">
         <v>51.23576912281897</v>
@@ -33974,7 +33974,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K39" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L39" t="n">
         <v>323.1116879522488</v>
@@ -33992,19 +33992,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q39" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S39" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T39" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,22 +34047,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I40" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J40" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K40" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L40" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M40" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N40" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O40" t="n">
         <v>176.341351701135</v>
@@ -34074,16 +34074,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R40" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S40" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,46 +34123,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H41" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I41" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J41" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K41" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L41" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M41" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N41" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O41" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P41" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q41" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R41" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S41" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T41" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,7 +34202,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H42" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I42" t="n">
         <v>51.23576912281897</v>
@@ -34211,7 +34211,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K42" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L42" t="n">
         <v>323.1116879522488</v>
@@ -34229,19 +34229,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q42" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R42" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S42" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T42" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,22 +34284,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I43" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J43" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K43" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L43" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M43" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N43" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O43" t="n">
         <v>176.341351701135</v>
@@ -34311,16 +34311,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R43" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S43" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T43" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,46 +34360,46 @@
         <v>2.78129067094392</v>
       </c>
       <c r="H44" t="n">
-        <v>28.48389308380443</v>
+        <v>28.48389308380442</v>
       </c>
       <c r="I44" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J44" t="n">
-        <v>236.0585690830268</v>
+        <v>236.0585690830267</v>
       </c>
       <c r="K44" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840829</v>
       </c>
       <c r="L44" t="n">
-        <v>438.9085275549831</v>
+        <v>438.908527554983</v>
       </c>
       <c r="M44" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243819</v>
       </c>
       <c r="N44" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432014</v>
       </c>
       <c r="O44" t="n">
-        <v>468.6161885340028</v>
+        <v>468.6161885340027</v>
       </c>
       <c r="P44" t="n">
         <v>399.9530750950747</v>
       </c>
       <c r="Q44" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418954</v>
       </c>
       <c r="R44" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S44" t="n">
-        <v>63.37866116413465</v>
+        <v>63.37866116413463</v>
       </c>
       <c r="T44" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755135</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,7 +34439,7 @@
         <v>1.488121701911175</v>
       </c>
       <c r="H45" t="n">
-        <v>14.37212275266846</v>
+        <v>14.37212275266845</v>
       </c>
       <c r="I45" t="n">
         <v>51.23576912281897</v>
@@ -34448,7 +34448,7 @@
         <v>140.5948665827571</v>
       </c>
       <c r="K45" t="n">
-        <v>240.2990206108059</v>
+        <v>240.2990206108058</v>
       </c>
       <c r="L45" t="n">
         <v>323.1116879522488</v>
@@ -34466,19 +34466,19 @@
         <v>284.1659765693366</v>
       </c>
       <c r="Q45" t="n">
-        <v>189.9574298790476</v>
+        <v>189.9574298790475</v>
       </c>
       <c r="R45" t="n">
-        <v>92.39408250988861</v>
+        <v>92.39408250988859</v>
       </c>
       <c r="S45" t="n">
         <v>27.64120792804308</v>
       </c>
       <c r="T45" t="n">
-        <v>5.998174754633199</v>
+        <v>5.998174754633198</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09790274354678788</v>
+        <v>0.09790274354678787</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,22 +34521,22 @@
         <v>11.09222034755017</v>
       </c>
       <c r="I46" t="n">
-        <v>37.51847127780773</v>
+        <v>37.51847127780772</v>
       </c>
       <c r="J46" t="n">
-        <v>88.20470106635749</v>
+        <v>88.20470106635747</v>
       </c>
       <c r="K46" t="n">
         <v>144.9474192655328</v>
       </c>
       <c r="L46" t="n">
-        <v>185.4827930100567</v>
+        <v>185.4827930100566</v>
       </c>
       <c r="M46" t="n">
         <v>195.5655986225025</v>
       </c>
       <c r="N46" t="n">
-        <v>190.9154857978651</v>
+        <v>190.915485797865</v>
       </c>
       <c r="O46" t="n">
         <v>176.341351701135</v>
@@ -34548,16 +34548,16 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R46" t="n">
-        <v>56.09623909916472</v>
+        <v>56.09623909916471</v>
       </c>
       <c r="S46" t="n">
-        <v>21.74211288982992</v>
+        <v>21.74211288982991</v>
       </c>
       <c r="T46" t="n">
-        <v>5.330617140438217</v>
+        <v>5.330617140438216</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06805043158006244</v>
+        <v>0.06805043158006242</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K11" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L11" t="n">
-        <v>203.1421125849959</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M11" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N11" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O11" t="n">
-        <v>583.6180421611867</v>
+        <v>441.8329452541875</v>
       </c>
       <c r="P11" t="n">
-        <v>408.3465882647835</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K12" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3976534758337</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M12" t="n">
-        <v>371.3186769003727</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N12" t="n">
-        <v>255.6939405553981</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="O12" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P12" t="n">
-        <v>150.1915691550064</v>
+        <v>329.5044240285393</v>
       </c>
       <c r="Q12" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>292.5040294974797</v>
       </c>
       <c r="M13" t="n">
-        <v>314.5806868114501</v>
+        <v>314.58068681145</v>
       </c>
       <c r="N13" t="n">
         <v>314.4788694042006</v>
@@ -35583,7 +35583,7 @@
         <v>280.3576908422816</v>
       </c>
       <c r="P13" t="n">
-        <v>227.600260782192</v>
+        <v>227.6002607821919</v>
       </c>
       <c r="Q13" t="n">
         <v>97.73792218940494</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>224.1092797284143</v>
+        <v>105.625539698803</v>
       </c>
       <c r="K14" t="n">
-        <v>339.362424680655</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L14" t="n">
-        <v>203.1421125849959</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M14" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N14" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O14" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P14" t="n">
         <v>490.5187875112878</v>
       </c>
       <c r="Q14" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K15" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3976534758337</v>
+        <v>373.3314960117591</v>
       </c>
       <c r="M15" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N15" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O15" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P15" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.98678606479986</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.27673217679164</v>
+        <v>74.27673217679165</v>
       </c>
       <c r="K16" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L16" t="n">
         <v>292.5040294974797</v>
@@ -35823,7 +35823,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940496</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K17" t="n">
-        <v>314.5212925131236</v>
+        <v>314.5212925131245</v>
       </c>
       <c r="L17" t="n">
-        <v>203.1421125849959</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M17" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N17" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O17" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P17" t="n">
         <v>490.5187875112878</v>
       </c>
       <c r="Q17" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R17" t="n">
-        <v>24.8411321675315</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K18" t="n">
         <v>366.9228186490254</v>
@@ -35969,19 +35969,19 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M18" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N18" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O18" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P18" t="n">
-        <v>286.5881803308685</v>
+        <v>412.6792156712777</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,16 +36051,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N19" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O19" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P19" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>105.6255396988017</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K20" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L20" t="n">
-        <v>203.1421125849959</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M20" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N20" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O20" t="n">
-        <v>238.5179771123161</v>
+        <v>416.9918130866561</v>
       </c>
       <c r="P20" t="n">
-        <v>490.5187875112878</v>
+        <v>168.7200793398051</v>
       </c>
       <c r="Q20" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K21" t="n">
         <v>366.9228186490254</v>
       </c>
       <c r="L21" t="n">
-        <v>373.3314960117581</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M21" t="n">
-        <v>234.9220657245105</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N21" t="n">
-        <v>255.6939405553981</v>
+        <v>583.6180421611868</v>
       </c>
       <c r="O21" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P21" t="n">
-        <v>468.6543377949436</v>
+        <v>329.5044240285393</v>
       </c>
       <c r="Q21" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,16 +36288,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N22" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O22" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P22" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.0126645563405</v>
+        <v>55.01266455634044</v>
       </c>
       <c r="K23" t="n">
-        <v>133.7007521391024</v>
+        <v>286.3687137193498</v>
       </c>
       <c r="L23" t="n">
-        <v>620.8033271354464</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M23" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N23" t="n">
-        <v>560.8211620753259</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O23" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P23" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>139.8482752564993</v>
+        <v>13.75723991609041</v>
       </c>
       <c r="K24" t="n">
-        <v>366.9228186490254</v>
+        <v>102.4575816364468</v>
       </c>
       <c r="L24" t="n">
-        <v>555.3976534758337</v>
+        <v>312.7844364407212</v>
       </c>
       <c r="M24" t="n">
-        <v>236.4068955573329</v>
+        <v>629.974031299944</v>
       </c>
       <c r="N24" t="n">
-        <v>255.6939405553981</v>
+        <v>629.974031299944</v>
       </c>
       <c r="O24" t="n">
-        <v>211.4657641677289</v>
+        <v>605.3280834444583</v>
       </c>
       <c r="P24" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550063</v>
       </c>
       <c r="Q24" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302602</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,16 +36525,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N25" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O25" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P25" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.01266455634041</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K26" t="n">
-        <v>457.846164710267</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L26" t="n">
         <v>620.8033271354461</v>
       </c>
       <c r="M26" t="n">
-        <v>707.5376057899416</v>
+        <v>707.5376057899417</v>
       </c>
       <c r="N26" t="n">
-        <v>704.2065084585945</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O26" t="n">
         <v>619.3181583750613</v>
       </c>
       <c r="P26" t="n">
-        <v>397.1047358764469</v>
+        <v>453.0400544564531</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.04241306744589</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>366.9228186490254</v>
       </c>
       <c r="L27" t="n">
-        <v>184.5573081723745</v>
+        <v>184.5573081723746</v>
       </c>
       <c r="M27" t="n">
         <v>234.9220657245104</v>
       </c>
       <c r="N27" t="n">
-        <v>320.1116994287242</v>
+        <v>320.1116994287241</v>
       </c>
       <c r="O27" t="n">
         <v>605.3280834444583</v>
       </c>
       <c r="P27" t="n">
-        <v>468.6543377949434</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q27" t="n">
         <v>260.0529435288751</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.27673217679165</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K28" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L28" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M28" t="n">
-        <v>314.58068681145</v>
+        <v>314.5806868114501</v>
       </c>
       <c r="N28" t="n">
         <v>314.4788694042006</v>
@@ -36768,10 +36768,10 @@
         <v>280.3576908422816</v>
       </c>
       <c r="P28" t="n">
-        <v>227.6002607821919</v>
+        <v>227.600260782192</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.73792218940496</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.0126645563405</v>
+        <v>198.7971557544277</v>
       </c>
       <c r="K29" t="n">
-        <v>364.4321130754252</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L29" t="n">
-        <v>620.8033271354464</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M29" t="n">
-        <v>707.5376057899417</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N29" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585946</v>
       </c>
       <c r="O29" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P29" t="n">
         <v>490.5187875112878</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K30" t="n">
         <v>366.9228186490254</v>
@@ -36917,19 +36917,19 @@
         <v>555.3976534758337</v>
       </c>
       <c r="M30" t="n">
-        <v>322.3617985711066</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N30" t="n">
         <v>255.6939405553981</v>
       </c>
       <c r="O30" t="n">
-        <v>211.4657641677289</v>
+        <v>298.9054970143249</v>
       </c>
       <c r="P30" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q30" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.27673217679167</v>
+        <v>74.2767321767916</v>
       </c>
       <c r="K31" t="n">
-        <v>202.1091386667569</v>
+        <v>202.1091386667568</v>
       </c>
       <c r="L31" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974797</v>
       </c>
       <c r="M31" t="n">
-        <v>314.5806868114501</v>
+        <v>314.5806868114499</v>
       </c>
       <c r="N31" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042005</v>
       </c>
       <c r="O31" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422815</v>
       </c>
       <c r="P31" t="n">
-        <v>227.600260782192</v>
+        <v>227.6002607821931</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.73792218940497</v>
+        <v>97.7379221894049</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K32" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L32" t="n">
-        <v>620.8033271354464</v>
+        <v>620.8033271354461</v>
       </c>
       <c r="M32" t="n">
         <v>707.5376057899417</v>
       </c>
       <c r="N32" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585946</v>
       </c>
       <c r="O32" t="n">
-        <v>619.3181583750614</v>
+        <v>619.3181583750613</v>
       </c>
       <c r="P32" t="n">
-        <v>397.104735876446</v>
+        <v>228.0081207043742</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.04241306744601</v>
+        <v>78.04241306744595</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K33" t="n">
         <v>366.9228186490254</v>
@@ -37160,13 +37160,13 @@
         <v>255.6939405553981</v>
       </c>
       <c r="O33" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P33" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q33" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>292.5040294974797</v>
       </c>
       <c r="M34" t="n">
-        <v>314.5806868114501</v>
+        <v>314.58068681145</v>
       </c>
       <c r="N34" t="n">
         <v>314.4788694042006</v>
@@ -37242,7 +37242,7 @@
         <v>280.3576908422816</v>
       </c>
       <c r="P34" t="n">
-        <v>227.600260782192</v>
+        <v>227.6002607821919</v>
       </c>
       <c r="Q34" t="n">
         <v>97.73792218940494</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K35" t="n">
-        <v>160.1848485850118</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L35" t="n">
-        <v>620.8033271354464</v>
+        <v>418.731131895895</v>
       </c>
       <c r="M35" t="n">
-        <v>674.2621117002075</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N35" t="n">
-        <v>674.2621117002075</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O35" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P35" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K36" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L36" t="n">
-        <v>310.1631786539683</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M36" t="n">
-        <v>674.2621117002075</v>
+        <v>322.361798571107</v>
       </c>
       <c r="N36" t="n">
-        <v>674.2621117002075</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O36" t="n">
-        <v>605.3280834444583</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P36" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q36" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,16 +37473,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N37" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O37" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P37" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K38" t="n">
         <v>457.8461647102671</v>
       </c>
       <c r="L38" t="n">
-        <v>620.8033271354464</v>
+        <v>418.7311318958942</v>
       </c>
       <c r="M38" t="n">
         <v>258.0240722971092</v>
       </c>
       <c r="N38" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O38" t="n">
-        <v>619.3181583750614</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P38" t="n">
-        <v>289.0580168409685</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R38" t="n">
-        <v>24.8411321675315</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K39" t="n">
         <v>366.9228186490254</v>
@@ -37634,13 +37634,13 @@
         <v>255.6939405553981</v>
       </c>
       <c r="O39" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P39" t="n">
-        <v>468.6543377949436</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q39" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,16 +37710,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N40" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O40" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P40" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.0126645563405</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K41" t="n">
-        <v>160.1848485850118</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L41" t="n">
-        <v>620.8033271354464</v>
+        <v>203.1421125849957</v>
       </c>
       <c r="M41" t="n">
-        <v>674.2621117002075</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N41" t="n">
-        <v>674.2621117002075</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="O41" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P41" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.04241306744601</v>
+        <v>123.385027552183</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.75723991609044</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K42" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L42" t="n">
         <v>555.3976534758337</v>
       </c>
       <c r="M42" t="n">
-        <v>674.2621117002075</v>
+        <v>234.9220657245104</v>
       </c>
       <c r="N42" t="n">
-        <v>429.027636878342</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O42" t="n">
-        <v>605.3280834444583</v>
+        <v>298.9054970143253</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q42" t="n">
-        <v>49.97565579302605</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,16 +37947,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N43" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O43" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P43" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>224.1092797284143</v>
+        <v>224.1092797284142</v>
       </c>
       <c r="K44" t="n">
-        <v>133.7007521391024</v>
+        <v>457.8461647102671</v>
       </c>
       <c r="L44" t="n">
-        <v>620.8033271354464</v>
+        <v>418.7311318958942</v>
       </c>
       <c r="M44" t="n">
-        <v>674.2621117002074</v>
+        <v>258.0240722971092</v>
       </c>
       <c r="N44" t="n">
-        <v>531.6495929740428</v>
+        <v>266.8595840466105</v>
       </c>
       <c r="O44" t="n">
-        <v>238.5179771123161</v>
+        <v>238.517977112316</v>
       </c>
       <c r="P44" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112878</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.04241306744601</v>
+        <v>290.3574037273506</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>24.84113216753147</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>139.8482752564993</v>
+        <v>139.8482752564992</v>
       </c>
       <c r="K45" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490254</v>
       </c>
       <c r="L45" t="n">
-        <v>184.5573081723746</v>
+        <v>555.3976534758337</v>
       </c>
       <c r="M45" t="n">
-        <v>674.2621117002074</v>
+        <v>322.361798571107</v>
       </c>
       <c r="N45" t="n">
-        <v>674.2621117002074</v>
+        <v>255.6939405553981</v>
       </c>
       <c r="O45" t="n">
-        <v>211.4657641677289</v>
+        <v>211.4657641677288</v>
       </c>
       <c r="P45" t="n">
-        <v>333.4914358370715</v>
+        <v>468.6543377949435</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.0529435288752</v>
+        <v>260.0529435288751</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,16 +38184,16 @@
         <v>235.1494755843431</v>
       </c>
       <c r="N46" t="n">
-        <v>235.0476581770937</v>
+        <v>235.0476581770936</v>
       </c>
       <c r="O46" t="n">
-        <v>200.9264796151747</v>
+        <v>200.9264796151746</v>
       </c>
       <c r="P46" t="n">
         <v>148.169049555085</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.30671096229801</v>
+        <v>18.306710962298</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
